--- a/src/test/resources/data/jdgroupTA623.xlsx
+++ b/src/test/resources/data/jdgroupTA623.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D7B655-D688-4BF9-84B1-CA141CF052F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="29" activeTab="33" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="EVS" sheetId="82" r:id="rId1"/>
@@ -114,12 +113,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -137,12 +136,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-2300-000001000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-2300-000002000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -181,12 +180,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-2400-000001000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -203,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-2400-000002000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -225,12 +224,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-5200-000001000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -3354,7 +3353,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="19">
     <font>
       <sz val="11"/>
@@ -4263,9 +4262,9 @@
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="4"/>
+    <cellStyle name="Normal 3" xfId="3"/>
   </cellStyles>
   <dxfs count="326">
     <dxf>
@@ -7769,7 +7768,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7802,26 +7801,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7854,23 +7836,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8046,35 +8011,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W65"/>
   <sheetViews>
-    <sheetView topLeftCell="D21" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="85.453125" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="85.453125" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" style="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="85.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="30" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="30" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="37" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.1796875" style="30" customWidth="1"/>
-    <col min="10" max="10" width="27.81640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.453125" style="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.81640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.90625" style="30" customWidth="1"/>
-    <col min="14" max="14" width="29.453125" style="30" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.26953125" style="30" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.453125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="39.7265625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.453125" style="30" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.81640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7265625" style="30" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.1796875" style="30"/>
+    <col min="9" max="9" width="33.140625" style="30" customWidth="1"/>
+    <col min="10" max="10" width="27.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.85546875" style="30" customWidth="1"/>
+    <col min="14" max="14" width="29.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="118" customFormat="1">
@@ -9713,7 +9676,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="49" spans="1:21" s="118" customFormat="1">
+    <row r="49" spans="1:23" s="118" customFormat="1">
       <c r="A49" s="156">
         <v>88</v>
       </c>
@@ -9742,7 +9705,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="50" spans="1:21" s="118" customFormat="1">
+    <row r="50" spans="1:23" s="118" customFormat="1">
       <c r="A50" s="156">
         <v>89</v>
       </c>
@@ -9771,7 +9734,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="51" spans="1:21" s="118" customFormat="1">
+    <row r="51" spans="1:23" s="118" customFormat="1">
       <c r="A51" s="156">
         <v>90</v>
       </c>
@@ -9800,7 +9763,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="52" spans="1:21" s="118" customFormat="1" ht="16.5" customHeight="1">
+    <row r="52" spans="1:23" s="118" customFormat="1" ht="16.5" customHeight="1">
       <c r="A52" s="156">
         <v>91</v>
       </c>
@@ -9854,7 +9817,7 @@
       </c>
       <c r="R52" s="122"/>
     </row>
-    <row r="53" spans="1:21" s="118" customFormat="1">
+    <row r="53" spans="1:23" s="118" customFormat="1">
       <c r="A53" s="156">
         <v>92</v>
       </c>
@@ -9908,7 +9871,7 @@
       </c>
       <c r="R53" s="122"/>
     </row>
-    <row r="54" spans="1:21" s="185" customFormat="1">
+    <row r="54" spans="1:23" s="185" customFormat="1">
       <c r="A54" s="219">
         <v>93</v>
       </c>
@@ -9939,7 +9902,7 @@
       <c r="O54" s="223"/>
       <c r="P54" s="119"/>
     </row>
-    <row r="55" spans="1:21" s="185" customFormat="1">
+    <row r="55" spans="1:23" s="185" customFormat="1">
       <c r="A55" s="219">
         <v>94</v>
       </c>
@@ -9966,7 +9929,7 @@
       </c>
       <c r="I55" s="226"/>
     </row>
-    <row r="56" spans="1:21" s="185" customFormat="1">
+    <row r="56" spans="1:23" s="185" customFormat="1">
       <c r="A56" s="219">
         <v>95</v>
       </c>
@@ -9993,7 +9956,7 @@
       </c>
       <c r="I56" s="226"/>
     </row>
-    <row r="57" spans="1:21" ht="13.5" customHeight="1">
+    <row r="57" spans="1:23" ht="13.5" customHeight="1">
       <c r="A57" s="228">
         <v>96</v>
       </c>
@@ -10049,7 +10012,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="58" spans="1:21">
+    <row r="58" spans="1:23">
       <c r="A58" s="228">
         <v>97</v>
       </c>
@@ -10099,7 +10062,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="59" spans="1:21">
+    <row r="59" spans="1:23">
       <c r="A59" s="228">
         <v>98</v>
       </c>
@@ -10155,7 +10118,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="60" spans="1:21" s="185" customFormat="1">
+    <row r="60" spans="1:23" s="185" customFormat="1">
       <c r="A60" s="219">
         <v>99</v>
       </c>
@@ -10186,7 +10149,7 @@
       <c r="O60" s="223"/>
       <c r="P60" s="119"/>
     </row>
-    <row r="61" spans="1:21" s="185" customFormat="1">
+    <row r="61" spans="1:23" s="185" customFormat="1">
       <c r="A61" s="219">
         <v>100</v>
       </c>
@@ -10213,7 +10176,7 @@
       </c>
       <c r="I61" s="226"/>
     </row>
-    <row r="62" spans="1:21" s="185" customFormat="1">
+    <row r="62" spans="1:23" s="185" customFormat="1">
       <c r="A62" s="219">
         <v>101</v>
       </c>
@@ -10240,7 +10203,7 @@
       </c>
       <c r="I62" s="226"/>
     </row>
-    <row r="63" spans="1:21" s="118" customFormat="1">
+    <row r="63" spans="1:23" s="118" customFormat="1">
       <c r="A63" s="135">
         <v>102</v>
       </c>
@@ -10285,7 +10248,7 @@
       <c r="T63" s="117"/>
       <c r="U63" s="117"/>
     </row>
-    <row r="64" spans="1:21" s="118" customFormat="1">
+    <row r="64" spans="1:23" s="118" customFormat="1">
       <c r="A64" s="135">
         <v>103</v>
       </c>
@@ -10307,38 +10270,40 @@
       <c r="G64" s="231" t="s">
         <v>983</v>
       </c>
-      <c r="H64" s="236" t="s">
+      <c r="H64" s="231"/>
+      <c r="I64" s="231"/>
+      <c r="J64" s="236" t="s">
         <v>1009</v>
       </c>
-      <c r="I64" s="114" t="s">
+      <c r="K64" s="114" t="s">
         <v>1024</v>
       </c>
-      <c r="J64" s="122" t="s">
+      <c r="L64" s="122" t="s">
         <v>817</v>
       </c>
-      <c r="K64" s="122" t="s">
+      <c r="M64" s="122" t="s">
         <v>818</v>
       </c>
-      <c r="L64" s="116" t="s">
+      <c r="N64" s="116" t="s">
         <v>829</v>
       </c>
-      <c r="M64" s="122" t="s">
+      <c r="O64" s="122" t="s">
         <v>819</v>
       </c>
-      <c r="N64" s="122" t="s">
+      <c r="P64" s="122" t="s">
         <v>813</v>
       </c>
-      <c r="O64" s="122" t="s">
+      <c r="Q64" s="122" t="s">
         <v>828</v>
       </c>
-      <c r="P64" s="117"/>
-      <c r="Q64" s="117"/>
       <c r="R64" s="117"/>
       <c r="S64" s="117"/>
       <c r="T64" s="117"/>
       <c r="U64" s="117"/>
-    </row>
-    <row r="65" spans="1:19" s="164" customFormat="1">
+      <c r="V64" s="117"/>
+      <c r="W64" s="117"/>
+    </row>
+    <row r="65" spans="1:19" s="164" customFormat="1" ht="30">
       <c r="A65" s="233">
         <v>104</v>
       </c>
@@ -10518,160 +10483,160 @@
     <cfRule type="duplicateValues" dxfId="285" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="H2" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I2" location="'evs_DeliveryPopulation++'!A1" display="evs_DeliveryPopulation" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="J2" location="'evs_CheckoutpaymentOption++'!A1" display="evs_CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="K2" location="'evs_PayUPagePayment++'!A1" display="evs_PayUPagePayment" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="L2" location="'evs_RetriveOrderID++'!A1" display="evs_RetriveOrderID" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="N2" location="'evs_OrderStatusSearch++'!A1" display="evs_OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="O2" location="'evs_GenerateOrderSAPnumber++'!A1" display="evs_GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="H3" location="'evs_AccountCreation++'!A1" display="evs_AccountCreation" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="H4:H7" location="'evs_AccountCreation++'!A1" display="evs_AccountCreation" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="P2" location="'evs_SAP_OrderRelated++'!A1" display="evs_SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="M2" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="G8" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="H9" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="H10" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="H11" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="H12" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="H13" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="G14" location="'parallel_evs_Login++'!A1" display="parallel_evs_Login" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="H15" location="'evs_invalidCredslogin++'!A1" display="evs_invalidCredslogin" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="H16" location="'evs_invalidCredslogin++'!A1" display="evs_invalidCredslogin" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="H17" location="'evs_AccountCreation++'!A1" display="evs_AccountCreation" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="H18:H20" location="'evs_AccountCreation++'!A1" display="evs_AccountCreation" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="I17" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I18:I20" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="L17" location="'EVS_SapCustomer++'!A1" display="evs_SapCustomer" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="K17" location="'evs_Magento_UserInfoVerify++'!A1" display="evs_Magento_UserInfoVerify" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="K18:K20" location="'evs_Magento_UserInfoVerify++'!A1" display="evs_Magento_UserInfoVerify" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="L18:L20" location="'EVS_SapCustomer++'!A1" display="evs_SapCustomer" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="H21" location="'evs_Login++'!A1" display="evs_ForgotPassword" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="H22" location="'evs_Login++'!A1" display="evs_ForgotPasswordLink" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="H23" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="J24" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="H24" location="'evs_Login++'!A1" display="evs_Login" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="L24" location="'evs_Login++'!A1" display="evs_Login" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G25" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="G26:G27" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="H25" location="'evs_CreateaccountBackend++'!A1" display="evs_CreateaccountBackend" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="H26:H27" location="'evs_CreateaccountBackend++'!A1" display="evs_CreateaccountBackend" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="I25" location="'evs_Magento_UserInfoVerify++'!A1" display="evs_Magento_UserInfoVerify" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="I26:I27" location="'evs_Magento_UserInfoVerify++'!A1" display="evs_Magento_UserInfoVerify" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="J25" location="'EVS_SapCustomer++'!A1" display="evs_SapCustomer" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="J26:J27" location="'EVS_SapCustomer++'!A1" display="evs_SapCustomer" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="H28" location="'evs_Login++'!A1" display="evs_Login" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="H29:H32" location="'evs_Login++'!A1" display="evs_Login" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="I28" location="'evs_UpdateUser++'!A1" display="evs_UpdateUser" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="I29:I32" location="'evs_UpdateUser++'!A1" display="evs_UpdateUser" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="J28" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="J29:J32" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="L28" location="'evs_Magento_UserInfoVerify++'!A1" display="evs_Magento_UserInfoVerify" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="L29:L32" location="'evs_Magento_UserInfoVerify++'!A1" display="evs_Magento_UserInfoVerify" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="M28" location="'EVS_SapCustomer++'!A1" display="evs_SapCustomer" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="M29:M32" location="'EVS_SapCustomer++'!A1" display="evs_SapCustomer" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="G33" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="H33" location="'evs_adminUserUpdate++'!A1" display="evs_adminUserUpdate" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="I33" location="'evs_Magento_UserInfoVerify++'!A1" display="evs_Magento_UserInfoVerify" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="J33" location="'EVS_SapCustomer++'!A1" display="evs_SapCustomer" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="G34:G37" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="H34:H37" location="'evs_adminUserUpdate++'!A1" display="evs_adminUserUpdate" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="I34:I37" location="'evs_Magento_UserInfoVerify++'!A1" display="evs_Magento_UserInfoVerify" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="J34:J37" location="'EVS_SapCustomer++'!A1" display="evs_SapCustomer" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="H39" location="'evs_NavigetoWishlist++'!A1" display="evs_NavigetoWishlist" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="H41:H42" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="K42" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="M42" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="L43" location="'evs_WishlistToCart++'!A1" display="evs_WishlistToCart" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="H44" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="H43" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="I41" location="'evs_ClearWishList++'!A1" display="evs_ClearWishList" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="J39" location="'evs_RemoveFromcart++'!A1" display="evs_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="I41:I44" location="'evs_RemoveFromcart++'!A1" display="evs_RemoveFromcart" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="J43:J44" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="H40" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="K39" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="G45" location="'parrallel_ic_Login++'!A1" display="parrallel_ic_Login" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="J52" location="'evs_DeliveryPopulation++'!A1" display="evs_DeliveryPopulation" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="K52" location="'evs_CheckoutpaymentOption++'!A1" display="evs_CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="L52" location="'evs_PayUPagePayment++'!A1" display="evs_PayUPagePayment" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="M52" location="'evs_RetriveOrderID++'!A1" display="evs_RetriveOrderID" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="O52" location="'evs_OrderStatusSearch++'!A1" display="evs_OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="P52" location="'evs_GenerateOrderSAPnumber++'!A1" display="evs_GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="N52" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="J53" location="'evs_DeliveryPopulation++'!A1" display="evs_DeliveryPopulation" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="K53" location="'evs_CheckoutpaymentOption++'!A1" display="evs_CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="L53" location="'evs_PayUPagePayment++'!A1" display="evs_PayUPagePayment" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="M53" location="'evs_RetriveOrderID++'!A1" display="evs_RetriveOrderID" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="O53" location="'evs_OrderStatusSearch++'!A1" display="evs_OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="P53" location="'evs_GenerateOrderSAPnumber++'!A1" display="evs_GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="N53" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="H48:H51" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="H54" location="'evs_SubscribeNews_DupEmailID++'!A1" display="evs_SubscribeNews_DupEmailID" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="H55" location="'evs_InvalidEmailNewsLetter++'!A1" display="evs_InvalidEmailNewsLetter" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="H56" location="'evs_SubscribeNewsletter++'!A1" display="ic_SubscribeNewsletter" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="G48" location="'EVS_SapRSIGetDataFromSAPDB++'!A1" display="EVS_SapRSIGetDataFromSAPDB" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="G49:G51" location="'EVS_SapRSIGetDataFromSAPDB++'!A1" display="EVS_SapRSIGetDataFromSAPDB" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="I52" location="'evs_ProductSearch++'!A1" display="EVS_skuProduct" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="I53" location="'evs_ProductSearch++'!A1" display="EVS_skuProduct" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="G53" location="'EVS_LaunchPortal++'!A1" display="EVS_LaunchPortal" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="G54:G56" location="'EVS_LaunchPortal++'!A1" display="EVS_LaunchPortal" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="G52" location="'EVS_LaunchPortal++'!A1" display="EVS_LaunchPortal" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="H58" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="I58" location="'evs_DeliveryPopulation++'!A1" display="evs_DeliveryPopulation" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="J58" location="'evs_CheckoutpaymentOption++'!A1" display="evs_CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="K58" location="'evs_RetriveOrderID++'!A1" display="evs_RetriveOrderID" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="M58" location="'evs_OrderStatusSearch++'!A1" display="evs_OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="O58" location="'evs_GenerateOrderSAPnumber++'!A1" display="evs_GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="P58" location="'evs_SAP_OrderRelated++'!A1" display="evs_SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="H57" location="'evs_Login++'!A1" display="evs_Login" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="H59" location="'evs_Login++'!A1" display="evs_Login" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="J57" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="K57" location="'evs_DeliveryPopulation++'!A1" display="evs_DeliveryPopulation" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="L57" location="'evs_CheckoutpaymentOption++'!A1" display="evs_CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="N57" location="'evs_RetriveOrderID++'!A1" display="evs_RetriveOrderID" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="P57" location="'evs_OrderStatusSearch++'!A1" display="evs_OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="Q57" location="'evs_GenerateOrderSAPnumber++'!A1" display="evs_GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="R57" location="'evs_SAP_OrderRelated++'!A1" display="evs_SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="O57" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="J59" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="K59" location="'evs_DeliveryPopulation++'!A1" display="evs_DeliveryPopulation" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="L59" location="'evs_CheckoutpaymentOption++'!A1" display="evs_CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="M59" location="'evs_RetriveOrderID++'!A1" display="evs_RetriveOrderID" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="O59" location="'evs_OrderStatusSearch++'!A1" display="evs_OrderStatusSearch" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="Q59" location="'evs_GenerateOrderSAPnumber++'!A1" display="evs_GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="R59" location="'evs_SAP_OrderRelated++'!A1" display="evs_SAP_OrderRelated" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="N59" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="L58" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="M57" location="'evs_PayUPagePayment++'!A1" display="evs_PayUPagePayment" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="G57" location="'EVS_LaunchPortal++'!A1" display="EVS_LaunchPortal" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="G58" location="'EVS_LaunchPortal++'!A1" display="EVS_LaunchPortal" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="G59" location="'EVS_LaunchPortal++'!A1" display="EVS_LaunchPortal" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="H60" location="'evs_SubscribeNews_DupEmailID++'!A1" display="evs_SubscribeNews_DupEmailID" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="H61" location="'evs_InvalidEmailNewsLetter++'!A1" display="evs_InvalidEmailNewsLetter" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="H62" location="'evs_SubscribeNewsletter++'!A1" display="ic_SubscribeNewsletter" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="G60:G62" location="'EVS_LaunchPortal++'!A1" display="EVS_LaunchPortal" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="H63" location="'evs_Login++'!A1" display="evs_Login" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="J63" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="G63" location="'EVS_LaunchPortal++'!A1" display="EVS_LaunchPortal" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="J65" location="'evs_GiftCardPurchase++'!A1" display="evs_GiftCardPurchase" xr:uid="{523E26DF-5ACA-4734-955C-14854DB66989}"/>
-    <hyperlink ref="G65" location="'EVS_LaunchPortal++'!A1" display="EVS_LaunchPortal" xr:uid="{117D7AA1-9D0D-4206-883E-4BBD818F7074}"/>
-    <hyperlink ref="H65" location="'evs_Login++'!A1" display="evs_Login" xr:uid="{EBFED712-7014-4321-8183-71455DEB46AB}"/>
-    <hyperlink ref="L65" location="'evs_PayUPagePayment++'!A1" display="evs_PayUPagePayment" xr:uid="{E8AE7E29-6B05-489E-93E4-44F24D4415C5}"/>
-    <hyperlink ref="N65" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento" xr:uid="{F1EAE284-AC58-4528-82B3-5800D9286DD0}"/>
-    <hyperlink ref="O65" location="'evs_OrderStatusSearch++'!A1" display="evs_OrderStatusSearch" xr:uid="{AED338A5-A76D-423D-919C-FDA15626B61F}"/>
-    <hyperlink ref="P65" location="'evs_GenerateOrderSAPnumber++'!A1" display="evs_GenerateOrderSAPnumber" xr:uid="{09671CE7-1503-4790-90BF-C4013CCD0A95}"/>
-    <hyperlink ref="Q65" location="'evs_SAP_OrderRelated++'!A1" display="evs_SAP_OrderRelated" xr:uid="{55689B38-A7F1-44B5-AC68-D24236442E4E}"/>
-    <hyperlink ref="K65" location="'evs_CheckoutpaymentOption++'!A1" display="evs_CheckoutpaymentOption" xr:uid="{39D54E68-6079-4891-B194-B03F3FB86123}"/>
-    <hyperlink ref="G64" location="'EVS_LaunchPortal++'!A1" display="EVS_LaunchPortal" xr:uid="{BA694B87-CE1F-4CAB-BA3C-48F9431DB117}"/>
-    <hyperlink ref="H64" location="'evs_GiftCardPurchase++'!A1" display="evs_GiftCardPurchase" xr:uid="{E5F8E5AB-27A2-4E0B-805B-ED78BB592B62}"/>
-    <hyperlink ref="I64" location="'evs_CheckoutpaymentOption++'!A1" display="evs_CheckoutGiftCard" xr:uid="{3E012C6F-07E8-43CD-B460-C83914EA7EE7}"/>
-    <hyperlink ref="J64" location="'evs_PayUPagePayment++'!A1" display="evs_PayUPagePayment" xr:uid="{8ECFEA66-F3BD-434F-B4BD-94BEBFC38CC6}"/>
-    <hyperlink ref="K64" location="'evs_RetriveOrderID++'!A1" display="evs_RetriveOrderID" xr:uid="{595D7726-8394-42AB-B96D-3F52BB147692}"/>
-    <hyperlink ref="L64" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento" xr:uid="{07CEE514-700C-43BC-A10A-AF186923E009}"/>
-    <hyperlink ref="M64" location="'evs_OrderStatusSearch++'!A1" display="evs_OrderStatusSearch" xr:uid="{466CFC31-EAF1-45B1-8144-73C655557699}"/>
-    <hyperlink ref="N64" location="'evs_GenerateOrderSAPnumber++'!A1" display="evs_GenerateOrderSAPnumber" xr:uid="{0A560887-B312-4086-B35D-9201FF10E17A}"/>
-    <hyperlink ref="O64" location="'evs_SAP_OrderRelated++'!A1" display="evs_SAP_OrderRelated" xr:uid="{EF356FE8-EAF7-461F-B577-AEE85CFD5240}"/>
+    <hyperlink ref="H2" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch"/>
+    <hyperlink ref="I2" location="'evs_DeliveryPopulation++'!A1" display="evs_DeliveryPopulation"/>
+    <hyperlink ref="J2" location="'evs_CheckoutpaymentOption++'!A1" display="evs_CheckoutpaymentOption"/>
+    <hyperlink ref="K2" location="'evs_PayUPagePayment++'!A1" display="evs_PayUPagePayment"/>
+    <hyperlink ref="L2" location="'evs_RetriveOrderID++'!A1" display="evs_RetriveOrderID"/>
+    <hyperlink ref="N2" location="'evs_OrderStatusSearch++'!A1" display="evs_OrderStatusSearch"/>
+    <hyperlink ref="O2" location="'evs_GenerateOrderSAPnumber++'!A1" display="evs_GenerateOrderSAPnumber"/>
+    <hyperlink ref="H3" location="'evs_AccountCreation++'!A1" display="evs_AccountCreation"/>
+    <hyperlink ref="H4:H7" location="'evs_AccountCreation++'!A1" display="evs_AccountCreation"/>
+    <hyperlink ref="P2" location="'evs_SAP_OrderRelated++'!A1" display="evs_SAP_OrderRelated"/>
+    <hyperlink ref="M2" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento"/>
+    <hyperlink ref="G8" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento"/>
+    <hyperlink ref="H9" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch"/>
+    <hyperlink ref="H10" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch"/>
+    <hyperlink ref="H11" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch"/>
+    <hyperlink ref="H12" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch"/>
+    <hyperlink ref="H13" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch"/>
+    <hyperlink ref="G14" location="'parallel_evs_Login++'!A1" display="parallel_evs_Login"/>
+    <hyperlink ref="H15" location="'evs_invalidCredslogin++'!A1" display="evs_invalidCredslogin"/>
+    <hyperlink ref="H16" location="'evs_invalidCredslogin++'!A1" display="evs_invalidCredslogin"/>
+    <hyperlink ref="H17" location="'evs_AccountCreation++'!A1" display="evs_AccountCreation"/>
+    <hyperlink ref="H18:H20" location="'evs_AccountCreation++'!A1" display="evs_AccountCreation"/>
+    <hyperlink ref="I17" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento"/>
+    <hyperlink ref="I18:I20" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento"/>
+    <hyperlink ref="L17" location="'EVS_SapCustomer++'!A1" display="evs_SapCustomer"/>
+    <hyperlink ref="K17" location="'evs_Magento_UserInfoVerify++'!A1" display="evs_Magento_UserInfoVerify"/>
+    <hyperlink ref="K18:K20" location="'evs_Magento_UserInfoVerify++'!A1" display="evs_Magento_UserInfoVerify"/>
+    <hyperlink ref="L18:L20" location="'EVS_SapCustomer++'!A1" display="evs_SapCustomer"/>
+    <hyperlink ref="H21" location="'evs_Login++'!A1" display="evs_ForgotPassword"/>
+    <hyperlink ref="H22" location="'evs_Login++'!A1" display="evs_ForgotPasswordLink"/>
+    <hyperlink ref="H23" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch"/>
+    <hyperlink ref="J24" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch"/>
+    <hyperlink ref="H24" location="'evs_Login++'!A1" display="evs_Login"/>
+    <hyperlink ref="L24" location="'evs_Login++'!A1" display="evs_Login"/>
+    <hyperlink ref="G25" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento"/>
+    <hyperlink ref="G26:G27" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento"/>
+    <hyperlink ref="H25" location="'evs_CreateaccountBackend++'!A1" display="evs_CreateaccountBackend"/>
+    <hyperlink ref="H26:H27" location="'evs_CreateaccountBackend++'!A1" display="evs_CreateaccountBackend"/>
+    <hyperlink ref="I25" location="'evs_Magento_UserInfoVerify++'!A1" display="evs_Magento_UserInfoVerify"/>
+    <hyperlink ref="I26:I27" location="'evs_Magento_UserInfoVerify++'!A1" display="evs_Magento_UserInfoVerify"/>
+    <hyperlink ref="J25" location="'EVS_SapCustomer++'!A1" display="evs_SapCustomer"/>
+    <hyperlink ref="J26:J27" location="'EVS_SapCustomer++'!A1" display="evs_SapCustomer"/>
+    <hyperlink ref="H28" location="'evs_Login++'!A1" display="evs_Login"/>
+    <hyperlink ref="H29:H32" location="'evs_Login++'!A1" display="evs_Login"/>
+    <hyperlink ref="I28" location="'evs_UpdateUser++'!A1" display="evs_UpdateUser"/>
+    <hyperlink ref="I29:I32" location="'evs_UpdateUser++'!A1" display="evs_UpdateUser"/>
+    <hyperlink ref="J28" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento"/>
+    <hyperlink ref="J29:J32" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento"/>
+    <hyperlink ref="L28" location="'evs_Magento_UserInfoVerify++'!A1" display="evs_Magento_UserInfoVerify"/>
+    <hyperlink ref="L29:L32" location="'evs_Magento_UserInfoVerify++'!A1" display="evs_Magento_UserInfoVerify"/>
+    <hyperlink ref="M28" location="'EVS_SapCustomer++'!A1" display="evs_SapCustomer"/>
+    <hyperlink ref="M29:M32" location="'EVS_SapCustomer++'!A1" display="evs_SapCustomer"/>
+    <hyperlink ref="G33" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento"/>
+    <hyperlink ref="H33" location="'evs_adminUserUpdate++'!A1" display="evs_adminUserUpdate"/>
+    <hyperlink ref="I33" location="'evs_Magento_UserInfoVerify++'!A1" display="evs_Magento_UserInfoVerify"/>
+    <hyperlink ref="J33" location="'EVS_SapCustomer++'!A1" display="evs_SapCustomer"/>
+    <hyperlink ref="G34:G37" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento"/>
+    <hyperlink ref="H34:H37" location="'evs_adminUserUpdate++'!A1" display="evs_adminUserUpdate"/>
+    <hyperlink ref="I34:I37" location="'evs_Magento_UserInfoVerify++'!A1" display="evs_Magento_UserInfoVerify"/>
+    <hyperlink ref="J34:J37" location="'EVS_SapCustomer++'!A1" display="evs_SapCustomer"/>
+    <hyperlink ref="H39" location="'evs_NavigetoWishlist++'!A1" display="evs_NavigetoWishlist"/>
+    <hyperlink ref="H41:H42" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="K42" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch"/>
+    <hyperlink ref="M42" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="L43" location="'evs_WishlistToCart++'!A1" display="evs_WishlistToCart"/>
+    <hyperlink ref="H44" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="H43" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="I41" location="'evs_ClearWishList++'!A1" display="evs_ClearWishList"/>
+    <hyperlink ref="J39" location="'evs_RemoveFromcart++'!A1" display="evs_RemoveFromcart"/>
+    <hyperlink ref="I41:I44" location="'evs_RemoveFromcart++'!A1" display="evs_RemoveFromcart"/>
+    <hyperlink ref="J43:J44" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch"/>
+    <hyperlink ref="H40" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch"/>
+    <hyperlink ref="K39" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch"/>
+    <hyperlink ref="G45" location="'parrallel_ic_Login++'!A1" display="parrallel_ic_Login"/>
+    <hyperlink ref="J52" location="'evs_DeliveryPopulation++'!A1" display="evs_DeliveryPopulation"/>
+    <hyperlink ref="K52" location="'evs_CheckoutpaymentOption++'!A1" display="evs_CheckoutpaymentOption"/>
+    <hyperlink ref="L52" location="'evs_PayUPagePayment++'!A1" display="evs_PayUPagePayment"/>
+    <hyperlink ref="M52" location="'evs_RetriveOrderID++'!A1" display="evs_RetriveOrderID"/>
+    <hyperlink ref="O52" location="'evs_OrderStatusSearch++'!A1" display="evs_OrderStatusSearch"/>
+    <hyperlink ref="P52" location="'evs_GenerateOrderSAPnumber++'!A1" display="evs_GenerateOrderSAPnumber"/>
+    <hyperlink ref="N52" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento"/>
+    <hyperlink ref="J53" location="'evs_DeliveryPopulation++'!A1" display="evs_DeliveryPopulation"/>
+    <hyperlink ref="K53" location="'evs_CheckoutpaymentOption++'!A1" display="evs_CheckoutpaymentOption"/>
+    <hyperlink ref="L53" location="'evs_PayUPagePayment++'!A1" display="evs_PayUPagePayment"/>
+    <hyperlink ref="M53" location="'evs_RetriveOrderID++'!A1" display="evs_RetriveOrderID"/>
+    <hyperlink ref="O53" location="'evs_OrderStatusSearch++'!A1" display="evs_OrderStatusSearch"/>
+    <hyperlink ref="P53" location="'evs_GenerateOrderSAPnumber++'!A1" display="evs_GenerateOrderSAPnumber"/>
+    <hyperlink ref="N53" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento"/>
+    <hyperlink ref="H48:H51" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento"/>
+    <hyperlink ref="H54" location="'evs_SubscribeNews_DupEmailID++'!A1" display="evs_SubscribeNews_DupEmailID"/>
+    <hyperlink ref="H55" location="'evs_InvalidEmailNewsLetter++'!A1" display="evs_InvalidEmailNewsLetter"/>
+    <hyperlink ref="H56" location="'evs_SubscribeNewsletter++'!A1" display="ic_SubscribeNewsletter"/>
+    <hyperlink ref="G48" location="'EVS_SapRSIGetDataFromSAPDB++'!A1" display="EVS_SapRSIGetDataFromSAPDB"/>
+    <hyperlink ref="G49:G51" location="'EVS_SapRSIGetDataFromSAPDB++'!A1" display="EVS_SapRSIGetDataFromSAPDB"/>
+    <hyperlink ref="I52" location="'evs_ProductSearch++'!A1" display="EVS_skuProduct"/>
+    <hyperlink ref="I53" location="'evs_ProductSearch++'!A1" display="EVS_skuProduct"/>
+    <hyperlink ref="G53" location="'EVS_LaunchPortal++'!A1" display="EVS_LaunchPortal"/>
+    <hyperlink ref="G54:G56" location="'EVS_LaunchPortal++'!A1" display="EVS_LaunchPortal"/>
+    <hyperlink ref="G52" location="'EVS_LaunchPortal++'!A1" display="EVS_LaunchPortal"/>
+    <hyperlink ref="H58" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch"/>
+    <hyperlink ref="I58" location="'evs_DeliveryPopulation++'!A1" display="evs_DeliveryPopulation"/>
+    <hyperlink ref="J58" location="'evs_CheckoutpaymentOption++'!A1" display="evs_CheckoutpaymentOption"/>
+    <hyperlink ref="K58" location="'evs_RetriveOrderID++'!A1" display="evs_RetriveOrderID"/>
+    <hyperlink ref="M58" location="'evs_OrderStatusSearch++'!A1" display="evs_OrderStatusSearch"/>
+    <hyperlink ref="O58" location="'evs_GenerateOrderSAPnumber++'!A1" display="evs_GenerateOrderSAPnumber"/>
+    <hyperlink ref="P58" location="'evs_SAP_OrderRelated++'!A1" display="evs_SAP_OrderRelated"/>
+    <hyperlink ref="H57" location="'evs_Login++'!A1" display="evs_Login"/>
+    <hyperlink ref="H59" location="'evs_Login++'!A1" display="evs_Login"/>
+    <hyperlink ref="J57" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch"/>
+    <hyperlink ref="K57" location="'evs_DeliveryPopulation++'!A1" display="evs_DeliveryPopulation"/>
+    <hyperlink ref="L57" location="'evs_CheckoutpaymentOption++'!A1" display="evs_CheckoutpaymentOption"/>
+    <hyperlink ref="N57" location="'evs_RetriveOrderID++'!A1" display="evs_RetriveOrderID"/>
+    <hyperlink ref="P57" location="'evs_OrderStatusSearch++'!A1" display="evs_OrderStatusSearch"/>
+    <hyperlink ref="Q57" location="'evs_GenerateOrderSAPnumber++'!A1" display="evs_GenerateOrderSAPnumber"/>
+    <hyperlink ref="R57" location="'evs_SAP_OrderRelated++'!A1" display="evs_SAP_OrderRelated"/>
+    <hyperlink ref="O57" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento"/>
+    <hyperlink ref="J59" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch"/>
+    <hyperlink ref="K59" location="'evs_DeliveryPopulation++'!A1" display="evs_DeliveryPopulation"/>
+    <hyperlink ref="L59" location="'evs_CheckoutpaymentOption++'!A1" display="evs_CheckoutpaymentOption"/>
+    <hyperlink ref="M59" location="'evs_RetriveOrderID++'!A1" display="evs_RetriveOrderID"/>
+    <hyperlink ref="O59" location="'evs_OrderStatusSearch++'!A1" display="evs_OrderStatusSearch"/>
+    <hyperlink ref="Q59" location="'evs_GenerateOrderSAPnumber++'!A1" display="evs_GenerateOrderSAPnumber"/>
+    <hyperlink ref="R59" location="'evs_SAP_OrderRelated++'!A1" display="evs_SAP_OrderRelated"/>
+    <hyperlink ref="N59" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento"/>
+    <hyperlink ref="L58" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento"/>
+    <hyperlink ref="M57" location="'evs_PayUPagePayment++'!A1" display="evs_PayUPagePayment"/>
+    <hyperlink ref="G57" location="'EVS_LaunchPortal++'!A1" display="EVS_LaunchPortal"/>
+    <hyperlink ref="G58" location="'EVS_LaunchPortal++'!A1" display="EVS_LaunchPortal"/>
+    <hyperlink ref="G59" location="'EVS_LaunchPortal++'!A1" display="EVS_LaunchPortal"/>
+    <hyperlink ref="H60" location="'evs_SubscribeNews_DupEmailID++'!A1" display="evs_SubscribeNews_DupEmailID"/>
+    <hyperlink ref="H61" location="'evs_InvalidEmailNewsLetter++'!A1" display="evs_InvalidEmailNewsLetter"/>
+    <hyperlink ref="H62" location="'evs_SubscribeNewsletter++'!A1" display="ic_SubscribeNewsletter"/>
+    <hyperlink ref="G60:G62" location="'EVS_LaunchPortal++'!A1" display="EVS_LaunchPortal"/>
+    <hyperlink ref="H63" location="'evs_Login++'!A1" display="evs_Login"/>
+    <hyperlink ref="J63" location="'evs_ProductSearch++'!A1" display="evs_ProductSearch"/>
+    <hyperlink ref="G63" location="'EVS_LaunchPortal++'!A1" display="EVS_LaunchPortal"/>
+    <hyperlink ref="J65" location="'evs_GiftCardPurchase++'!A1" display="evs_GiftCardPurchase"/>
+    <hyperlink ref="G65" location="'EVS_LaunchPortal++'!A1" display="EVS_LaunchPortal"/>
+    <hyperlink ref="H65" location="'evs_Login++'!A1" display="evs_Login"/>
+    <hyperlink ref="L65" location="'evs_PayUPagePayment++'!A1" display="evs_PayUPagePayment"/>
+    <hyperlink ref="N65" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento"/>
+    <hyperlink ref="O65" location="'evs_OrderStatusSearch++'!A1" display="evs_OrderStatusSearch"/>
+    <hyperlink ref="P65" location="'evs_GenerateOrderSAPnumber++'!A1" display="evs_GenerateOrderSAPnumber"/>
+    <hyperlink ref="Q65" location="'evs_SAP_OrderRelated++'!A1" display="evs_SAP_OrderRelated"/>
+    <hyperlink ref="K65" location="'evs_CheckoutpaymentOption++'!A1" display="evs_CheckoutpaymentOption"/>
+    <hyperlink ref="G64" location="'EVS_LaunchPortal++'!A1" display="EVS_LaunchPortal"/>
+    <hyperlink ref="J64" location="'evs_GiftCardPurchase++'!A1" display="evs_GiftCardPurchase"/>
+    <hyperlink ref="K64" location="'evs_CheckoutpaymentOption++'!A1" display="evs_CheckoutGiftCard"/>
+    <hyperlink ref="L64" location="'evs_PayUPagePayment++'!A1" display="evs_PayUPagePayment"/>
+    <hyperlink ref="M64" location="'evs_RetriveOrderID++'!A1" display="evs_RetriveOrderID"/>
+    <hyperlink ref="N64" location="'EVS_Login_magento++'!A1" display="EVS_Login_magento"/>
+    <hyperlink ref="O64" location="'evs_OrderStatusSearch++'!A1" display="evs_OrderStatusSearch"/>
+    <hyperlink ref="P64" location="'evs_GenerateOrderSAPnumber++'!A1" display="evs_GenerateOrderSAPnumber"/>
+    <hyperlink ref="Q64" location="'evs_SAP_OrderRelated++'!A1" display="evs_SAP_OrderRelated"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10679,18 +10644,18 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="85.453125" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.42578125" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="30"/>
+    <col min="5" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -11741,30 +11706,30 @@
     <cfRule type="duplicateValues" dxfId="248" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"IC_frontend_QA_validUser,IC_frontend_QA_invalidUsername,IC_frontend_QA_invalidPassword,IC_magento_QA,EVS_frontend_QA,EVS_magento_QA"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="85.453125" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.42578125" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="30"/>
+    <col min="5" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -12668,12 +12633,12 @@
     <cfRule type="duplicateValues" dxfId="233" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-0A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"IC_frontend_QA_validUser,IC_frontend_QA_invalidUsername,IC_frontend_QA_invalidPassword,IC_magento_QA,EVS_frontend_QA,EVS_magento_QA"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12681,22 +12646,22 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -12865,7 +12830,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" location="EVS!A1" display="EVS" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="B3" location="EVS!A1" display="EVS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -12873,7 +12838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA96"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -12883,29 +12848,29 @@
       <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" style="60" customWidth="1"/>
-    <col min="2" max="2" width="93.54296875" style="118" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" style="60" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="90.7265625" style="118" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" style="118" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1796875" style="118" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.26953125" style="118" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.5703125" style="118" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.7109375" style="118" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="118" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="118" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.28515625" style="118" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="45" style="118" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.453125" style="118" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.7265625" style="118" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.453125" style="118" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.453125" style="118" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="27.1796875" style="118" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="31.453125" style="118" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.81640625" style="118" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.453125" style="118" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.1796875" style="118" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.81640625" style="118" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.54296875" style="118" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.7265625" style="118" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.1796875" style="118"/>
+    <col min="9" max="9" width="31.42578125" style="118" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.7109375" style="118" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.42578125" style="118" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.42578125" style="118" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="27.140625" style="118" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="31.42578125" style="118" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.85546875" style="118" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.42578125" style="118" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.140625" style="118" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.85546875" style="118" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" style="118" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.7109375" style="118" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="118"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -12982,7 +12947,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="29">
+    <row r="2" spans="1:24" ht="30">
       <c r="A2" s="127">
         <v>1</v>
       </c>
@@ -13025,7 +12990,7 @@
       <c r="P2" s="111"/>
       <c r="Q2" s="111"/>
     </row>
-    <row r="3" spans="1:24" ht="29">
+    <row r="3" spans="1:24" ht="30">
       <c r="A3" s="127">
         <v>2</v>
       </c>
@@ -13069,7 +13034,7 @@
       <c r="Q3" s="111"/>
       <c r="R3" s="111"/>
     </row>
-    <row r="4" spans="1:24" ht="29">
+    <row r="4" spans="1:24" ht="30">
       <c r="A4" s="127">
         <v>3</v>
       </c>
@@ -13111,7 +13076,7 @@
       <c r="Q4" s="111"/>
       <c r="R4" s="111"/>
     </row>
-    <row r="5" spans="1:24" ht="29">
+    <row r="5" spans="1:24" ht="30">
       <c r="A5" s="127">
         <v>4</v>
       </c>
@@ -13155,7 +13120,7 @@
       <c r="Q5" s="111"/>
       <c r="R5" s="111"/>
     </row>
-    <row r="6" spans="1:24" ht="29">
+    <row r="6" spans="1:24" ht="30">
       <c r="A6" s="127">
         <v>5</v>
       </c>
@@ -13199,7 +13164,7 @@
       <c r="Q6" s="111"/>
       <c r="R6" s="111"/>
     </row>
-    <row r="7" spans="1:24" ht="29">
+    <row r="7" spans="1:24" ht="30">
       <c r="A7" s="124">
         <v>6</v>
       </c>
@@ -13238,7 +13203,7 @@
       <c r="P7" s="111"/>
       <c r="Q7" s="111"/>
     </row>
-    <row r="8" spans="1:24" ht="29">
+    <row r="8" spans="1:24" ht="30">
       <c r="A8" s="124">
         <v>7</v>
       </c>
@@ -13277,7 +13242,7 @@
       <c r="P8" s="111"/>
       <c r="Q8" s="111"/>
     </row>
-    <row r="9" spans="1:24" ht="29">
+    <row r="9" spans="1:24" ht="30">
       <c r="A9" s="124">
         <v>8</v>
       </c>
@@ -13314,7 +13279,7 @@
       <c r="P9" s="111"/>
       <c r="Q9" s="111"/>
     </row>
-    <row r="10" spans="1:24" ht="29">
+    <row r="10" spans="1:24" ht="30">
       <c r="A10" s="124">
         <v>9</v>
       </c>
@@ -13353,7 +13318,7 @@
       <c r="P10" s="111"/>
       <c r="Q10" s="111"/>
     </row>
-    <row r="11" spans="1:24" ht="29">
+    <row r="11" spans="1:24" ht="30">
       <c r="A11" s="124">
         <v>10</v>
       </c>
@@ -13392,7 +13357,7 @@
       <c r="P11" s="111"/>
       <c r="Q11" s="111"/>
     </row>
-    <row r="12" spans="1:24" ht="29">
+    <row r="12" spans="1:24" ht="30">
       <c r="A12" s="124">
         <v>11</v>
       </c>
@@ -13431,7 +13396,7 @@
       <c r="P12" s="111"/>
       <c r="Q12" s="111"/>
     </row>
-    <row r="13" spans="1:24" ht="29">
+    <row r="13" spans="1:24" ht="30">
       <c r="A13" s="124">
         <v>12</v>
       </c>
@@ -13470,7 +13435,7 @@
       <c r="P13" s="111"/>
       <c r="Q13" s="111"/>
     </row>
-    <row r="14" spans="1:24" ht="29">
+    <row r="14" spans="1:24" ht="30">
       <c r="A14" s="127">
         <v>13</v>
       </c>
@@ -13509,7 +13474,7 @@
       <c r="P14" s="111"/>
       <c r="Q14" s="111"/>
     </row>
-    <row r="15" spans="1:24" ht="29">
+    <row r="15" spans="1:24" ht="30">
       <c r="A15" s="127">
         <v>14</v>
       </c>
@@ -13548,7 +13513,7 @@
       <c r="P15" s="111"/>
       <c r="Q15" s="111"/>
     </row>
-    <row r="16" spans="1:24" ht="29">
+    <row r="16" spans="1:24" ht="30">
       <c r="A16" s="134">
         <v>15</v>
       </c>
@@ -13591,7 +13556,7 @@
       <c r="P16" s="111"/>
       <c r="Q16" s="111"/>
     </row>
-    <row r="17" spans="1:18" ht="29">
+    <row r="17" spans="1:18" ht="30">
       <c r="A17" s="134">
         <v>16</v>
       </c>
@@ -13634,7 +13599,7 @@
       <c r="P17" s="111"/>
       <c r="Q17" s="111"/>
     </row>
-    <row r="18" spans="1:18" ht="29">
+    <row r="18" spans="1:18" ht="30">
       <c r="A18" s="134">
         <v>17</v>
       </c>
@@ -13677,7 +13642,7 @@
       <c r="P18" s="111"/>
       <c r="Q18" s="111"/>
     </row>
-    <row r="19" spans="1:18" ht="29">
+    <row r="19" spans="1:18" ht="30">
       <c r="A19" s="134">
         <v>18</v>
       </c>
@@ -13720,7 +13685,7 @@
       <c r="P19" s="111"/>
       <c r="Q19" s="111"/>
     </row>
-    <row r="20" spans="1:18" ht="29">
+    <row r="20" spans="1:18" ht="30">
       <c r="A20" s="134">
         <v>19</v>
       </c>
@@ -13763,7 +13728,7 @@
       <c r="P20" s="111"/>
       <c r="Q20" s="111"/>
     </row>
-    <row r="21" spans="1:18" ht="29">
+    <row r="21" spans="1:18" ht="30">
       <c r="A21" s="134">
         <v>20</v>
       </c>
@@ -16769,302 +16734,302 @@
     <cfRule type="duplicateValues" dxfId="193" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="I3" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
-    <hyperlink ref="H3" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
-    <hyperlink ref="I4" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0C00-000002000000}"/>
-    <hyperlink ref="H4" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0C00-000003000000}"/>
-    <hyperlink ref="I5" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0C00-000004000000}"/>
-    <hyperlink ref="H5" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0C00-000005000000}"/>
-    <hyperlink ref="I6" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0C00-000006000000}"/>
-    <hyperlink ref="H6" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0C00-000007000000}"/>
-    <hyperlink ref="G7" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0C00-000008000000}"/>
-    <hyperlink ref="G8:G9" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0C00-000009000000}"/>
-    <hyperlink ref="H7" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend" xr:uid="{00000000-0004-0000-0C00-00000A000000}"/>
-    <hyperlink ref="H8:H9" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend" xr:uid="{00000000-0004-0000-0C00-00000B000000}"/>
-    <hyperlink ref="J7" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0C00-00000C000000}"/>
-    <hyperlink ref="G10:G14" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0C00-00000D000000}"/>
-    <hyperlink ref="H10" location="'adminUserUpdate++'!A1" display="adminUserUpdate" xr:uid="{00000000-0004-0000-0C00-00000E000000}"/>
-    <hyperlink ref="H11:H14" location="'adminUserUpdate++'!A1" display="adminUserUpdate" xr:uid="{00000000-0004-0000-0C00-00000F000000}"/>
-    <hyperlink ref="G15" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0C00-000010000000}"/>
-    <hyperlink ref="H15" location="'adminUserUpdate++'!A1" display="adminUserUpdate" xr:uid="{00000000-0004-0000-0C00-000011000000}"/>
-    <hyperlink ref="G16" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0C00-000012000000}"/>
-    <hyperlink ref="H16" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0C00-000013000000}"/>
-    <hyperlink ref="I16" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0C00-000014000000}"/>
-    <hyperlink ref="G17" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0C00-000015000000}"/>
-    <hyperlink ref="G18" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0C00-000016000000}"/>
-    <hyperlink ref="G19" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0C00-000017000000}"/>
-    <hyperlink ref="G20" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0C00-000018000000}"/>
-    <hyperlink ref="H17" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0C00-000019000000}"/>
-    <hyperlink ref="H18" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0C00-00001A000000}"/>
-    <hyperlink ref="H19" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0C00-00001B000000}"/>
-    <hyperlink ref="H20" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0C00-00001C000000}"/>
-    <hyperlink ref="I17" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0C00-00001D000000}"/>
-    <hyperlink ref="I18" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0C00-00001E000000}"/>
-    <hyperlink ref="I19" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0C00-00001F000000}"/>
-    <hyperlink ref="I20" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0C00-000020000000}"/>
-    <hyperlink ref="G21" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0C00-000021000000}"/>
-    <hyperlink ref="H21" location="'ICUpdateUser++'!A1" display="ICUpdateUser" xr:uid="{00000000-0004-0000-0C00-000022000000}"/>
-    <hyperlink ref="I21" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0C00-000023000000}"/>
-    <hyperlink ref="H27" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0C00-000024000000}"/>
-    <hyperlink ref="I27" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0C00-000025000000}"/>
-    <hyperlink ref="M27" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0C00-000026000000}"/>
-    <hyperlink ref="O27" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0C00-000027000000}"/>
-    <hyperlink ref="H24" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0C00-000028000000}"/>
-    <hyperlink ref="H25" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0C00-000029000000}"/>
-    <hyperlink ref="H22" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0C00-00002A000000}"/>
-    <hyperlink ref="H23" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0C00-00002B000000}"/>
-    <hyperlink ref="H26" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0C00-00002C000000}"/>
-    <hyperlink ref="J10:J15" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0C00-00002D000000}"/>
-    <hyperlink ref="L17:L21" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0C00-00002E000000}"/>
-    <hyperlink ref="L16" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0C00-00002F000000}"/>
-    <hyperlink ref="J27" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0C00-000030000000}"/>
-    <hyperlink ref="K27" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0C00-000031000000}"/>
-    <hyperlink ref="N27" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0C00-000032000000}"/>
-    <hyperlink ref="L27" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0C00-000033000000}"/>
-    <hyperlink ref="P27" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0C00-000034000000}"/>
-    <hyperlink ref="H28" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0C00-000035000000}"/>
-    <hyperlink ref="H30" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0C00-000036000000}"/>
-    <hyperlink ref="I28" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0C00-000037000000}"/>
-    <hyperlink ref="I30" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0C00-000038000000}"/>
-    <hyperlink ref="M28" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0C00-000039000000}"/>
-    <hyperlink ref="M30" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0C00-00003A000000}"/>
-    <hyperlink ref="O28" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0C00-00003B000000}"/>
-    <hyperlink ref="O30" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0C00-00003C000000}"/>
-    <hyperlink ref="J28" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0C00-00003D000000}"/>
-    <hyperlink ref="J30" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0C00-00003E000000}"/>
-    <hyperlink ref="K28" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0C00-00003F000000}"/>
-    <hyperlink ref="K30" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0C00-000040000000}"/>
-    <hyperlink ref="N28" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0C00-000041000000}"/>
-    <hyperlink ref="N30" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0C00-000042000000}"/>
-    <hyperlink ref="L28" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0C00-000043000000}"/>
-    <hyperlink ref="L30" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0C00-000044000000}"/>
-    <hyperlink ref="P28" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0C00-000045000000}"/>
-    <hyperlink ref="P30" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0C00-000046000000}"/>
-    <hyperlink ref="H31" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0C00-000047000000}"/>
-    <hyperlink ref="I31" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0C00-000048000000}"/>
-    <hyperlink ref="L31" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0C00-000049000000}"/>
-    <hyperlink ref="O31" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0C00-00004A000000}"/>
-    <hyperlink ref="J31" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0C00-00004B000000}"/>
-    <hyperlink ref="M31" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0C00-00004C000000}"/>
-    <hyperlink ref="K31" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0C00-00004D000000}"/>
-    <hyperlink ref="P31" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0C00-00004E000000}"/>
-    <hyperlink ref="H29" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0C00-00004F000000}"/>
-    <hyperlink ref="I29" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0C00-000050000000}"/>
-    <hyperlink ref="M29" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0C00-000051000000}"/>
-    <hyperlink ref="O29" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0C00-000052000000}"/>
-    <hyperlink ref="J29" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0C00-000053000000}"/>
-    <hyperlink ref="K29" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0C00-000054000000}"/>
-    <hyperlink ref="N29" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0C00-000055000000}"/>
-    <hyperlink ref="L29" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0C00-000056000000}"/>
-    <hyperlink ref="P29" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0C00-000057000000}"/>
-    <hyperlink ref="H32" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0C00-000058000000}"/>
-    <hyperlink ref="I32" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0C00-000059000000}"/>
-    <hyperlink ref="M32" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0C00-00005A000000}"/>
-    <hyperlink ref="J32" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0C00-00005B000000}"/>
-    <hyperlink ref="K32" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0C00-00005C000000}"/>
-    <hyperlink ref="N32" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0C00-00005D000000}"/>
-    <hyperlink ref="L32" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0C00-00005E000000}"/>
-    <hyperlink ref="P32" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0C00-00005F000000}"/>
-    <hyperlink ref="Q32" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0C00-000060000000}"/>
-    <hyperlink ref="G34" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0C00-000061000000}"/>
-    <hyperlink ref="G37" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0C00-000062000000}"/>
-    <hyperlink ref="I37" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0C00-000063000000}"/>
-    <hyperlink ref="I33" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0C00-000064000000}"/>
-    <hyperlink ref="J33" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0C00-000065000000}"/>
-    <hyperlink ref="L33" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0C00-000066000000}"/>
-    <hyperlink ref="M33" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0C00-000067000000}"/>
-    <hyperlink ref="N33" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0C00-000068000000}"/>
-    <hyperlink ref="O33" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0C00-000069000000}"/>
-    <hyperlink ref="H33" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase" xr:uid="{00000000-0004-0000-0C00-00006A000000}"/>
-    <hyperlink ref="H34" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase" xr:uid="{00000000-0004-0000-0C00-00006B000000}"/>
-    <hyperlink ref="I34" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0C00-00006C000000}"/>
-    <hyperlink ref="J34" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0C00-00006D000000}"/>
-    <hyperlink ref="L34" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0C00-00006E000000}"/>
-    <hyperlink ref="M34" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0C00-00006F000000}"/>
-    <hyperlink ref="N34" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0C00-000070000000}"/>
-    <hyperlink ref="O34" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0C00-000071000000}"/>
-    <hyperlink ref="H47" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails" xr:uid="{00000000-0004-0000-0C00-000072000000}"/>
-    <hyperlink ref="H48" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails" xr:uid="{00000000-0004-0000-0C00-000073000000}"/>
-    <hyperlink ref="I47" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor" xr:uid="{00000000-0004-0000-0C00-000074000000}"/>
-    <hyperlink ref="J47" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails" xr:uid="{00000000-0004-0000-0C00-000075000000}"/>
-    <hyperlink ref="I48" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails" xr:uid="{00000000-0004-0000-0C00-000076000000}"/>
-    <hyperlink ref="G47" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0C00-000077000000}"/>
-    <hyperlink ref="G48" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0C00-000078000000}"/>
-    <hyperlink ref="H49" location="'ic_SubscribeNews_DupliEmailID++'!A1" display="ic_SubscribeNews_DupliEmailID" xr:uid="{00000000-0004-0000-0C00-000079000000}"/>
-    <hyperlink ref="G40" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0C00-00007A000000}"/>
-    <hyperlink ref="N40" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0C00-00007B000000}"/>
-    <hyperlink ref="G41:G42" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0C00-00007C000000}"/>
-    <hyperlink ref="K54" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0C00-00007D000000}"/>
-    <hyperlink ref="M47" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0C00-00007E000000}"/>
-    <hyperlink ref="N47" location="'CreditApp_NavigateFilter++'!A1" display="CreditApp_NavigateFilter" xr:uid="{00000000-0004-0000-0C00-00007F000000}"/>
-    <hyperlink ref="O47" location="'CreditStatusVerification++'!A1" display="CreditStatusVerification" xr:uid="{00000000-0004-0000-0C00-000080000000}"/>
-    <hyperlink ref="O32" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0C00-000081000000}"/>
-    <hyperlink ref="K48" location="'EnterContact++'!A1" display="EnterContact" xr:uid="{00000000-0004-0000-0C00-000082000000}"/>
-    <hyperlink ref="L47" location="'EnterContact++'!A1" display="EnterContact" xr:uid="{00000000-0004-0000-0C00-000083000000}"/>
-    <hyperlink ref="J48" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails" xr:uid="{00000000-0004-0000-0C00-000084000000}"/>
-    <hyperlink ref="K47" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails" xr:uid="{00000000-0004-0000-0C00-000085000000}"/>
-    <hyperlink ref="G39" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0C00-000086000000}"/>
-    <hyperlink ref="G38" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0C00-000087000000}"/>
-    <hyperlink ref="H53:H54" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0C00-000088000000}"/>
-    <hyperlink ref="I53" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0C00-000089000000}"/>
-    <hyperlink ref="J53" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0C00-00008A000000}"/>
-    <hyperlink ref="J35" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard" xr:uid="{00000000-0004-0000-0C00-00008B000000}"/>
-    <hyperlink ref="H36" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0C00-00008C000000}"/>
-    <hyperlink ref="J36" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0C00-00008D000000}"/>
-    <hyperlink ref="K36" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0C00-00008E000000}"/>
-    <hyperlink ref="L37" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0C00-00008F000000}"/>
-    <hyperlink ref="J37" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard" xr:uid="{00000000-0004-0000-0C00-000090000000}"/>
-    <hyperlink ref="L36" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0C00-000091000000}"/>
-    <hyperlink ref="M37" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0C00-000092000000}"/>
-    <hyperlink ref="H38" location="'giftCardReport++'!A1" display="giftCardReport" xr:uid="{00000000-0004-0000-0C00-000093000000}"/>
-    <hyperlink ref="H39" location="'giftCardReport++'!A1" display="giftCardReport" xr:uid="{00000000-0004-0000-0C00-000094000000}"/>
-    <hyperlink ref="H50" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy" xr:uid="{00000000-0004-0000-0C00-000095000000}"/>
-    <hyperlink ref="H50:H52" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy" xr:uid="{00000000-0004-0000-0C00-000096000000}"/>
-    <hyperlink ref="I2" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0C00-000097000000}"/>
-    <hyperlink ref="L2" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0C00-000098000000}"/>
-    <hyperlink ref="H2" location="'accountCreation++'!A1" display="accountCreation" xr:uid="{00000000-0004-0000-0C00-000099000000}"/>
-    <hyperlink ref="K2" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0C00-00009A000000}"/>
-    <hyperlink ref="L3" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0C00-00009B000000}"/>
-    <hyperlink ref="L5" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0C00-00009C000000}"/>
-    <hyperlink ref="K3" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0C00-00009D000000}"/>
-    <hyperlink ref="K4" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0C00-00009E000000}"/>
-    <hyperlink ref="K5" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0C00-00009F000000}"/>
-    <hyperlink ref="L6" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0C00-0000A0000000}"/>
-    <hyperlink ref="K6" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0C00-0000A1000000}"/>
-    <hyperlink ref="K16" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0C00-0000A2000000}"/>
-    <hyperlink ref="K17:K21" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0C00-0000A3000000}"/>
-    <hyperlink ref="J16" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-0C00-0000A4000000}"/>
-    <hyperlink ref="J17:J21" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-0C00-0000A5000000}"/>
-    <hyperlink ref="J2" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-0C00-0000A6000000}"/>
-    <hyperlink ref="J3:J6" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails" xr:uid="{00000000-0004-0000-0C00-0000A7000000}"/>
-    <hyperlink ref="K55" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0C00-0000A8000000}"/>
-    <hyperlink ref="J55" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0C00-0000A9000000}"/>
-    <hyperlink ref="H55" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0C00-0000AA000000}"/>
-    <hyperlink ref="L55" location="'IC_WishlistToCart++'!A1" display="IC_WishlistToCart" xr:uid="{00000000-0004-0000-0C00-0000AB000000}"/>
-    <hyperlink ref="K56" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0C00-0000AC000000}"/>
-    <hyperlink ref="K57" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0C00-0000AD000000}"/>
-    <hyperlink ref="G58" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0C00-0000AE000000}"/>
-    <hyperlink ref="J58" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{00000000-0004-0000-0C00-0000AF000000}"/>
-    <hyperlink ref="H69" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0C00-0000B0000000}"/>
-    <hyperlink ref="L71" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0C00-0000B1000000}"/>
-    <hyperlink ref="I71" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0C00-0000B2000000}"/>
-    <hyperlink ref="J71" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0C00-0000B3000000}"/>
-    <hyperlink ref="K71" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0C00-0000B4000000}"/>
-    <hyperlink ref="M71" location="'SendWishlistToEmail++'!A1" display="SendWishlistToEmail" xr:uid="{00000000-0004-0000-0C00-0000B5000000}"/>
-    <hyperlink ref="N71" location="'icEmailWishlistverification++'!A1" display="icEmailWishlistverification" xr:uid="{00000000-0004-0000-0C00-0000B6000000}"/>
-    <hyperlink ref="H56:H57" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist" xr:uid="{00000000-0004-0000-0C00-0000B7000000}"/>
-    <hyperlink ref="J56:J57" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0C00-0000B8000000}"/>
-    <hyperlink ref="H63" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin" xr:uid="{00000000-0004-0000-0C00-0000B9000000}"/>
-    <hyperlink ref="H64" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin" xr:uid="{00000000-0004-0000-0C00-0000BA000000}"/>
-    <hyperlink ref="H70" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0C00-0000BB000000}"/>
-    <hyperlink ref="H40" location="'ClearCart++'!A1" display="ClearCart++" xr:uid="{00000000-0004-0000-0C00-0000BC000000}"/>
-    <hyperlink ref="I40" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0C00-0000BD000000}"/>
-    <hyperlink ref="I41:I42" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0C00-0000BE000000}"/>
-    <hyperlink ref="H41:H42" location="'ClearCart++'!A1" display="ClearCart++" xr:uid="{00000000-0004-0000-0C00-0000BF000000}"/>
-    <hyperlink ref="K41" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0C00-0000C0000000}"/>
-    <hyperlink ref="K42" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0C00-0000C1000000}"/>
-    <hyperlink ref="K40" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0C00-0000C2000000}"/>
-    <hyperlink ref="J42" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0C00-0000C3000000}"/>
-    <hyperlink ref="J40:J41" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0C00-0000C4000000}"/>
-    <hyperlink ref="L42" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0C00-0000C5000000}"/>
-    <hyperlink ref="L40:L41" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0C00-0000C6000000}"/>
-    <hyperlink ref="N41" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0C00-0000C7000000}"/>
-    <hyperlink ref="O41" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0C00-0000C8000000}"/>
-    <hyperlink ref="O40" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0C00-0000C9000000}"/>
-    <hyperlink ref="O42" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0C00-0000CA000000}"/>
-    <hyperlink ref="P42" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0C00-0000CB000000}"/>
-    <hyperlink ref="O40:O41" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0C00-0000CC000000}"/>
-    <hyperlink ref="R41" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0C00-0000CD000000}"/>
-    <hyperlink ref="R40" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0C00-0000CE000000}"/>
-    <hyperlink ref="R42" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification" xr:uid="{00000000-0004-0000-0C00-0000CF000000}"/>
-    <hyperlink ref="R41:R42" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0C00-0000D0000000}"/>
-    <hyperlink ref="M54" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0C00-0000D1000000}"/>
-    <hyperlink ref="I55" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0C00-0000D2000000}"/>
-    <hyperlink ref="I56:I57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0C00-0000D3000000}"/>
-    <hyperlink ref="L57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0C00-0000D4000000}"/>
-    <hyperlink ref="I54" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0C00-0000D5000000}"/>
-    <hyperlink ref="J54" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart" xr:uid="{00000000-0004-0000-0C00-0000D6000000}"/>
-    <hyperlink ref="L54" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem" xr:uid="{00000000-0004-0000-0C00-0000D7000000}"/>
-    <hyperlink ref="H74" location="'ic_NavigetoWishlist++'!A1" display="NavigateToWishlist_VerifyLoginPageAppear" xr:uid="{00000000-0004-0000-0C00-0000D8000000}"/>
-    <hyperlink ref="H78" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0C00-0000D9000000}"/>
-    <hyperlink ref="H79" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0C00-0000DA000000}"/>
-    <hyperlink ref="G59:G62" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0C00-0000DB000000}"/>
-    <hyperlink ref="H58" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{00000000-0004-0000-0C00-0000DC000000}"/>
-    <hyperlink ref="I58" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0C00-0000DD000000}"/>
-    <hyperlink ref="I59:I62" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0C00-0000DE000000}"/>
-    <hyperlink ref="H75" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0C00-0000DF000000}"/>
-    <hyperlink ref="H76:H77" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0C00-0000E0000000}"/>
-    <hyperlink ref="G80" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0C00-0000E1000000}"/>
-    <hyperlink ref="H80" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{00000000-0004-0000-0C00-0000E2000000}"/>
-    <hyperlink ref="I80" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0C00-0000E3000000}"/>
-    <hyperlink ref="L80" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0C00-0000E4000000}"/>
-    <hyperlink ref="G43" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0C00-0000E5000000}"/>
-    <hyperlink ref="H43" location="'ClearCart++'!A1" display="ClearCart++" xr:uid="{00000000-0004-0000-0C00-0000E6000000}"/>
-    <hyperlink ref="I43" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0C00-0000E7000000}"/>
-    <hyperlink ref="G35" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0C00-0000E8000000}"/>
-    <hyperlink ref="I36" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard" xr:uid="{00000000-0004-0000-0C00-0000E9000000}"/>
-    <hyperlink ref="I35" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0C00-0000EA000000}"/>
-    <hyperlink ref="G85" location="'parrallel_ic_Login++'!A1" display="parrallel_ic_Login" xr:uid="{00000000-0004-0000-0C00-0000EB000000}"/>
-    <hyperlink ref="I88" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0C00-0000EC000000}"/>
-    <hyperlink ref="I89" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0C00-0000ED000000}"/>
-    <hyperlink ref="I90" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0C00-0000EE000000}"/>
-    <hyperlink ref="I91" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0C00-0000EF000000}"/>
-    <hyperlink ref="N92" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0C00-0000F0000000}"/>
-    <hyperlink ref="K92" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0C00-0000F1000000}"/>
-    <hyperlink ref="J92" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0C00-0000F2000000}"/>
-    <hyperlink ref="L92" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0C00-0000F3000000}"/>
-    <hyperlink ref="O92" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0C00-0000F4000000}"/>
-    <hyperlink ref="N93" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0C00-0000F5000000}"/>
-    <hyperlink ref="I93" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0C00-0000F6000000}"/>
-    <hyperlink ref="K93" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0C00-0000F7000000}"/>
-    <hyperlink ref="J93" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0C00-0000F8000000}"/>
-    <hyperlink ref="L93" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0C00-0000F9000000}"/>
-    <hyperlink ref="O93" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0C00-0000FA000000}"/>
-    <hyperlink ref="G94" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0C00-0000FB000000}"/>
-    <hyperlink ref="H94" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{00000000-0004-0000-0C00-0000FC000000}"/>
-    <hyperlink ref="I94" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0C00-0000FD000000}"/>
-    <hyperlink ref="K94" location="'validatePaymentOption++'!A1" display="validatePaymentOption" xr:uid="{00000000-0004-0000-0C00-0000FE000000}"/>
-    <hyperlink ref="M93" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0C00-0000FF000000}"/>
-    <hyperlink ref="P92" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0C00-000000010000}"/>
-    <hyperlink ref="G44" location="'LaunchPortal++'!A1" display="LaunchPortal" xr:uid="{00000000-0004-0000-0C00-000001010000}"/>
-    <hyperlink ref="G2:G6" location="'LaunchPortal++'!A1" display="LaunchPortal" xr:uid="{00000000-0004-0000-0C00-000002010000}"/>
-    <hyperlink ref="G22:G33" location="'LaunchPortal++'!A1" display="LaunchPortal" xr:uid="{00000000-0004-0000-0C00-000003010000}"/>
-    <hyperlink ref="G36" location="'LaunchPortal++'!A1" display="LaunchPortal" xr:uid="{00000000-0004-0000-0C00-000004010000}"/>
-    <hyperlink ref="G45:G46" location="'LaunchPortal++'!A1" display="LaunchPortal" xr:uid="{00000000-0004-0000-0C00-000005010000}"/>
-    <hyperlink ref="G49:G57" location="'LaunchPortal++'!A1" display="LaunchPortal" xr:uid="{00000000-0004-0000-0C00-000006010000}"/>
-    <hyperlink ref="G63:G79" location="'LaunchPortal++'!A1" display="LaunchPortal" xr:uid="{00000000-0004-0000-0C00-000007010000}"/>
-    <hyperlink ref="G81:G84" location="'LaunchPortal++'!A1" display="LaunchPortal" xr:uid="{00000000-0004-0000-0C00-000008010000}"/>
-    <hyperlink ref="G86:G93" location="'LaunchPortal++'!A1" display="LaunchPortal" xr:uid="{00000000-0004-0000-0C00-000009010000}"/>
-    <hyperlink ref="G95" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0C00-00000A010000}"/>
-    <hyperlink ref="J95" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0C00-00000B010000}"/>
-    <hyperlink ref="L95" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0C00-00000C010000}"/>
-    <hyperlink ref="M95" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0C00-00000D010000}"/>
-    <hyperlink ref="N95" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0C00-00000E010000}"/>
-    <hyperlink ref="O95" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0C00-00000F010000}"/>
-    <hyperlink ref="P95" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0C00-000010010000}"/>
-    <hyperlink ref="S95" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0C00-000011010000}"/>
-    <hyperlink ref="T95" location="'srs_Login++'!A1" display="srs_Login" xr:uid="{00000000-0004-0000-0C00-000012010000}"/>
-    <hyperlink ref="U95" location="'SRSLogonStore++'!A1" display="SRSLogonStore" xr:uid="{00000000-0004-0000-0C00-000013010000}"/>
-    <hyperlink ref="V95" location="'srs_salesOrder_DeliverStatus++'!A1" display="srs_salesOrder_DeliverStatus" xr:uid="{00000000-0004-0000-0C00-000014010000}"/>
-    <hyperlink ref="I95" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{00000000-0004-0000-0C00-000015010000}"/>
-    <hyperlink ref="R95" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0C00-000016010000}"/>
-    <hyperlink ref="T42" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0C00-000017010000}"/>
-    <hyperlink ref="T40" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0C00-000018010000}"/>
-    <hyperlink ref="T41" location="'SapCustomer++'!A1" display="SapCustomer" xr:uid="{00000000-0004-0000-0C00-000019010000}"/>
-    <hyperlink ref="S40" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0C00-00001A010000}"/>
-    <hyperlink ref="N96" location="'Login_magento++'!A1" display="Login_magento" xr:uid="{00000000-0004-0000-0C00-00001B010000}"/>
-    <hyperlink ref="O96" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch" xr:uid="{00000000-0004-0000-0C00-00001C010000}"/>
-    <hyperlink ref="I96" location="'ProductSearch++'!A1" display="ProductSearch" xr:uid="{00000000-0004-0000-0C00-00001D010000}"/>
-    <hyperlink ref="K96" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption" xr:uid="{00000000-0004-0000-0C00-00001E010000}"/>
-    <hyperlink ref="J96" location="'deliveryPopulation++'!A1" display="deliveryPopulation" xr:uid="{00000000-0004-0000-0C00-00001F010000}"/>
-    <hyperlink ref="L96" location="'PayUPagePayment++'!A1" display="PayUPagePayment" xr:uid="{00000000-0004-0000-0C00-000020010000}"/>
-    <hyperlink ref="M96" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID" xr:uid="{00000000-0004-0000-0C00-000021010000}"/>
-    <hyperlink ref="G96" location="'ic_login++'!A1" display="ic_login" xr:uid="{00000000-0004-0000-0C00-000022010000}"/>
-    <hyperlink ref="H96" location="'ClearCart++'!A1" display="ClearCart" xr:uid="{00000000-0004-0000-0C00-000023010000}"/>
-    <hyperlink ref="P96" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber" xr:uid="{00000000-0004-0000-0C00-000024010000}"/>
-    <hyperlink ref="Q96" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated" xr:uid="{00000000-0004-0000-0C00-000025010000}"/>
-    <hyperlink ref="H88" location="'SapRSIGetDataFromSAPDB++'!A1" display="SapRSIGetDataFromSAPDB" xr:uid="{00000000-0004-0000-0C00-000026010000}"/>
-    <hyperlink ref="H89:H91" location="'SapRSIGetDataFromSAPDB++'!A1" display="SapRSIGetDataFromSAPDB" xr:uid="{00000000-0004-0000-0C00-000027010000}"/>
+    <hyperlink ref="I3" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H3" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="I4" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H4" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="I5" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H5" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="I6" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H6" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="G7" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G8:G9" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H7" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend"/>
+    <hyperlink ref="H8:H9" location="'CreateaccountBackend++'!A1" display="CreateaccountBackend"/>
+    <hyperlink ref="J7" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="G10:G14" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H10" location="'adminUserUpdate++'!A1" display="adminUserUpdate"/>
+    <hyperlink ref="H11:H14" location="'adminUserUpdate++'!A1" display="adminUserUpdate"/>
+    <hyperlink ref="G15" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H15" location="'adminUserUpdate++'!A1" display="adminUserUpdate"/>
+    <hyperlink ref="G16" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H16" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="I16" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G17" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G18" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G19" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G20" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H17" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="H18" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="H19" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="H20" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="I17" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="I18" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="I19" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="I20" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G21" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H21" location="'ICUpdateUser++'!A1" display="ICUpdateUser"/>
+    <hyperlink ref="I21" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H27" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="I27" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="M27" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="O27" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="H24" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="H25" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="H22" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="H23" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="H26" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="J10:J15" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="L17:L21" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="L16" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="J27" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="K27" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="N27" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="L27" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="P27" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="H28" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H30" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="I28" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="I30" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="M28" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="M30" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="O28" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="O30" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="J28" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J30" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="K28" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="K30" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="N28" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="N30" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="L28" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="L30" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="P28" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="P30" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="H31" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="I31" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L31" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="O31" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="J31" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="M31" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="K31" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="P31" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="H29" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="I29" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="M29" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="O29" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="J29" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="K29" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="N29" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="L29" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="P29" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="H32" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="I32" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="M32" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="J32" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="K32" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="N32" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="L32" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="P32" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="Q32" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="G34" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G37" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="I37" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="I33" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J33" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="L33" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="M33" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="N33" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="O33" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="H33" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase"/>
+    <hyperlink ref="H34" location="'icGiftCardPurchase++'!A1" display="icGiftCardPurchase"/>
+    <hyperlink ref="I34" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J34" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="L34" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="M34" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="N34" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="O34" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="H47" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails"/>
+    <hyperlink ref="H48" location="'EnterBasicDetails++'!A1" display="EnterBasicDetails"/>
+    <hyperlink ref="I47" location="'EnterSpouseInfor++'!A1" display="EnterSpouseInfor"/>
+    <hyperlink ref="J47" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails"/>
+    <hyperlink ref="I48" location="'CreditEnterEmploymentDetails++'!A1" display="CreditEnterEmploymentDetails"/>
+    <hyperlink ref="G47" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G48" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H49" location="'ic_SubscribeNews_DupliEmailID++'!A1" display="ic_SubscribeNews_DupliEmailID"/>
+    <hyperlink ref="G40" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="N40" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G41:G42" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="K54" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="M47" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="N47" location="'CreditApp_NavigateFilter++'!A1" display="CreditApp_NavigateFilter"/>
+    <hyperlink ref="O47" location="'CreditStatusVerification++'!A1" display="CreditStatusVerification"/>
+    <hyperlink ref="O32" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="K48" location="'EnterContact++'!A1" display="EnterContact"/>
+    <hyperlink ref="L47" location="'EnterContact++'!A1" display="EnterContact"/>
+    <hyperlink ref="J48" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails"/>
+    <hyperlink ref="K47" location="'CreditEnterAddressDetails++'!A1" display="CreditEnterAddressDetails"/>
+    <hyperlink ref="G39" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="G38" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="H53:H54" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="I53" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="J53" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="J35" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard"/>
+    <hyperlink ref="H36" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="J36" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="K36" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="L37" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J37" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard"/>
+    <hyperlink ref="L36" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="M37" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="H38" location="'giftCardReport++'!A1" display="giftCardReport"/>
+    <hyperlink ref="H39" location="'giftCardReport++'!A1" display="giftCardReport"/>
+    <hyperlink ref="H50" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy"/>
+    <hyperlink ref="H50:H52" location="'IC_ProductsSortBy++'!A1" display="IC_ProductsSortBy"/>
+    <hyperlink ref="I2" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="L2" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="H2" location="'accountCreation++'!A1" display="accountCreation"/>
+    <hyperlink ref="K2" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="L3" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="L5" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="K3" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="K4" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="K5" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="L6" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="K6" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="K16" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="K17:K21" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="J16" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails"/>
+    <hyperlink ref="J17:J21" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails"/>
+    <hyperlink ref="J2" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails"/>
+    <hyperlink ref="J3:J6" location="'RetrieveCustomerDetails++'!A1" display="RetrieveCustomerDetails"/>
+    <hyperlink ref="K55" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="J55" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="H55" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="L55" location="'IC_WishlistToCart++'!A1" display="IC_WishlistToCart"/>
+    <hyperlink ref="K56" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="K57" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G58" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="J58" location="'ClearCart++'!A1" display="ClearCart"/>
+    <hyperlink ref="H69" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="L71" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="I71" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="J71" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="K71" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="M71" location="'SendWishlistToEmail++'!A1" display="SendWishlistToEmail"/>
+    <hyperlink ref="N71" location="'icEmailWishlistverification++'!A1" display="icEmailWishlistverification"/>
+    <hyperlink ref="H56:H57" location="'ic_NavigetoWishlist++'!A1" display="ic_NavigetoWishlist"/>
+    <hyperlink ref="J56:J57" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="H63" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin"/>
+    <hyperlink ref="H64" location="'ic_invalidCredslogin++'!A1" display="ic_invalidCredslogin"/>
+    <hyperlink ref="H70" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H40" location="'ClearCart++'!A1" display="ClearCart++"/>
+    <hyperlink ref="I40" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="I41:I42" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H41:H42" location="'ClearCart++'!A1" display="ClearCart++"/>
+    <hyperlink ref="K41" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="K42" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="K40" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J42" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="J40:J41" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L42" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="L40:L41" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="N41" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="O41" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="O40" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="O42" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="P42" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="O40:O41" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="R41" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="R40" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="R42" location="'Magento_UserInfoVerification++'!A1" display="Magento_UserInfoVerification"/>
+    <hyperlink ref="R41:R42" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="M54" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="I55" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="I56:I57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="L57" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="I54" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="J54" location="'ic_RemoveFromcart++'!A1" display="ic_RemoveFromcart"/>
+    <hyperlink ref="L54" location="'ic_verifyWishlistItem++'!A1" display="ic_verifyWishlistItem"/>
+    <hyperlink ref="H74" location="'ic_NavigetoWishlist++'!A1" display="NavigateToWishlist_VerifyLoginPageAppear"/>
+    <hyperlink ref="H78" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H79" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G59:G62" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H58" location="'ClearCart++'!A1" display="ClearCart"/>
+    <hyperlink ref="I58" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="I59:I62" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H75" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="H76:H77" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G80" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H80" location="'ClearCart++'!A1" display="ClearCart"/>
+    <hyperlink ref="I80" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="L80" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="G43" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H43" location="'ClearCart++'!A1" display="ClearCart++"/>
+    <hyperlink ref="I43" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G35" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="I36" location="'icRedeemGiftCard++'!A1" display="icRedeemGiftCard"/>
+    <hyperlink ref="I35" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="G85" location="'parrallel_ic_Login++'!A1" display="parrallel_ic_Login"/>
+    <hyperlink ref="I88" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="I89" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="I90" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="I91" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="N92" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="K92" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J92" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L92" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="O92" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="N93" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="I93" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="K93" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J93" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L93" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="O93" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="G94" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H94" location="'ClearCart++'!A1" display="ClearCart"/>
+    <hyperlink ref="I94" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="K94" location="'validatePaymentOption++'!A1" display="validatePaymentOption"/>
+    <hyperlink ref="M93" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="P92" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="G44" location="'LaunchPortal++'!A1" display="LaunchPortal"/>
+    <hyperlink ref="G2:G6" location="'LaunchPortal++'!A1" display="LaunchPortal"/>
+    <hyperlink ref="G22:G33" location="'LaunchPortal++'!A1" display="LaunchPortal"/>
+    <hyperlink ref="G36" location="'LaunchPortal++'!A1" display="LaunchPortal"/>
+    <hyperlink ref="G45:G46" location="'LaunchPortal++'!A1" display="LaunchPortal"/>
+    <hyperlink ref="G49:G57" location="'LaunchPortal++'!A1" display="LaunchPortal"/>
+    <hyperlink ref="G63:G79" location="'LaunchPortal++'!A1" display="LaunchPortal"/>
+    <hyperlink ref="G81:G84" location="'LaunchPortal++'!A1" display="LaunchPortal"/>
+    <hyperlink ref="G86:G93" location="'LaunchPortal++'!A1" display="LaunchPortal"/>
+    <hyperlink ref="G95" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="J95" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="L95" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="M95" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="N95" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="O95" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="P95" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="S95" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="T95" location="'srs_Login++'!A1" display="srs_Login"/>
+    <hyperlink ref="U95" location="'SRSLogonStore++'!A1" display="SRSLogonStore"/>
+    <hyperlink ref="V95" location="'srs_salesOrder_DeliverStatus++'!A1" display="srs_salesOrder_DeliverStatus"/>
+    <hyperlink ref="I95" location="'ClearCart++'!A1" display="ClearCart"/>
+    <hyperlink ref="R95" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="T42" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="T40" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="T41" location="'SapCustomer++'!A1" display="SapCustomer"/>
+    <hyperlink ref="S40" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="N96" location="'Login_magento++'!A1" display="Login_magento"/>
+    <hyperlink ref="O96" location="'OrderStatusSearch++'!A1" display="OrderStatusSearch"/>
+    <hyperlink ref="I96" location="'ProductSearch++'!A1" display="ProductSearch"/>
+    <hyperlink ref="K96" location="'CheckoutpaymentOption++'!A1" display="CheckoutpaymentOption"/>
+    <hyperlink ref="J96" location="'deliveryPopulation++'!A1" display="deliveryPopulation"/>
+    <hyperlink ref="L96" location="'PayUPagePayment++'!A1" display="PayUPagePayment"/>
+    <hyperlink ref="M96" location="'ic_RetriveOrderID++'!A1" display="ic_RetriveOrderID"/>
+    <hyperlink ref="G96" location="'ic_login++'!A1" display="ic_login"/>
+    <hyperlink ref="H96" location="'ClearCart++'!A1" display="ClearCart"/>
+    <hyperlink ref="P96" location="'GenerateOrderSAPnumber++'!A1" display="GenerateOrderSAPnumber"/>
+    <hyperlink ref="Q96" location="'SAP_OrderRelated++'!A1" display="SAP_OrderRelated"/>
+    <hyperlink ref="H88" location="'SapRSIGetDataFromSAPDB++'!A1" display="SapRSIGetDataFromSAPDB"/>
+    <hyperlink ref="H89:H91" location="'SapRSIGetDataFromSAPDB++'!A1" display="SapRSIGetDataFromSAPDB"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -17072,16 +17037,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="8.7265625" style="107"/>
+    <col min="1" max="2" width="8.7109375" style="107"/>
     <col min="3" max="3" width="21" style="107" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="107"/>
+    <col min="4" max="16384" width="8.7109375" style="107"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -17108,24 +17073,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="107" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="107" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.26953125" style="107" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="107"/>
+    <col min="3" max="3" width="19.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7109375" style="107"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -17152,26 +17117,26 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="107" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="107" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="104.26953125" style="107" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="104.28515625" style="107" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="107" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" style="107" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="107"/>
+    <col min="5" max="5" width="12.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="107"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -17210,25 +17175,25 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" location="ZEccSRS-display" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
+    <hyperlink ref="C2" r:id="rId1" location="ZEccSRS-display"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
   </cols>
@@ -17269,12 +17234,12 @@
     <cfRule type="duplicateValues" dxfId="191" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-1000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"IC_frontend_QA_validUser,IC_frontend_QA_invalidUsername,IC_frontend_QA_invalidPassword,IC_magento_QA,EVS_frontend_QA,EVS_magento_QA"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -17282,20 +17247,20 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.26953125" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.28515625" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.26953125" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="30"/>
+    <col min="4" max="4" width="30.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="49" customFormat="1">
@@ -17558,32 +17523,32 @@
     <cfRule type="duplicateValues" dxfId="189" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D18" xr:uid="{00000000-0002-0000-1100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D18">
       <formula1>"Update Account,Update Account Magento Admin,Create Account,Create Account Magento Admin,Guest Customer Creation,Registered customer from sales order"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="99"/>
-    <col min="2" max="2" width="45.81640625" style="99" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" style="99" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="122.54296875" style="99" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="99"/>
+    <col min="1" max="1" width="9.140625" style="99"/>
+    <col min="2" max="2" width="45.85546875" style="99" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="99" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="122.5703125" style="99" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="99"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -17616,25 +17581,25 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="99" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.1796875" style="99" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" style="99" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="99" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" style="99" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="99"/>
+    <col min="4" max="4" width="11.140625" style="99" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="99"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -17687,28 +17652,28 @@
     <cfRule type="duplicateValues" dxfId="283" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
+    <hyperlink ref="D3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="107" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.453125" style="107" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.42578125" style="107" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="107" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" style="107" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="107" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="107"/>
+    <col min="4" max="4" width="15.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="107"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -17770,26 +17735,26 @@
     <cfRule type="duplicateValues" dxfId="187" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-1300-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.7265625" style="99" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.54296875" style="99" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" style="99" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" style="99" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="99" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="99" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="99" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="99"/>
+    <col min="4" max="4" width="17.5703125" style="99" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="99" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="99"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -17851,36 +17816,36 @@
     <cfRule type="duplicateValues" dxfId="185" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="automation13@gmail.com" xr:uid="{00000000-0004-0000-1400-000000000000}"/>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-1400-000001000000}"/>
-    <hyperlink ref="D3" r:id="rId2" display="automation13@gmail.com" xr:uid="{00000000-0004-0000-1400-000002000000}"/>
+    <hyperlink ref="D2" r:id="rId1" display="automation13@gmail.com"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
+    <hyperlink ref="D3" r:id="rId2" display="automation13@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="99" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63" style="99" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="99" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" style="99" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.54296875" style="99" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="99" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" style="99" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="99" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.453125" style="99" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.26953125" style="99" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.453125" style="99" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" style="99" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="99" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" style="99" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" style="99" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.1796875" style="99" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="99"/>
+    <col min="11" max="11" width="18.140625" style="99" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="99"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -17942,20 +17907,20 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="84" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63" style="84" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="84" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="84"/>
+    <col min="4" max="4" width="9.140625" style="84"/>
     <col min="5" max="5" width="3" style="84" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="63" style="84" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="84"/>
+    <col min="7" max="16384" width="9.140625" style="84"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -18066,25 +18031,25 @@
     <cfRule type="duplicateValues" dxfId="178" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-1600-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="84" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46" style="84" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="84" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.26953125" style="84" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="84"/>
+    <col min="4" max="4" width="19.28515625" style="84" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="84"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -18236,33 +18201,33 @@
     <cfRule type="duplicateValues" dxfId="171" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D9" xr:uid="{00000000-0002-0000-1700-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D9">
       <formula1>"All,Specific"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-1700-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="84" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63" style="84" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="84" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="84" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="84" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="84" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.54296875" style="84" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="84" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="84" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="84"/>
+    <col min="8" max="16384" width="9.140625" style="84"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -18443,43 +18408,43 @@
     <cfRule type="duplicateValues" dxfId="166" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E2:E3" r:id="rId1" display="watlevi41@gmail.com" xr:uid="{00000000-0004-0000-1800-000000000000}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-1800-000001000000}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{00000000-0004-0000-1800-000002000000}"/>
-    <hyperlink ref="E4:E7" r:id="rId4" display="MichaelGHand@teleworm.us" xr:uid="{00000000-0004-0000-1800-000003000000}"/>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-1800-000004000000}"/>
+    <hyperlink ref="E2:E3" r:id="rId1" display="watlevi41@gmail.com"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId3"/>
+    <hyperlink ref="E4:E7" r:id="rId4" display="MichaelGHand@teleworm.us"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="30"/>
-    <col min="2" max="2" width="55.54296875" style="30" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" style="30" customWidth="1"/>
-    <col min="4" max="4" width="31.1796875" style="30" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" style="30" customWidth="1"/>
-    <col min="6" max="6" width="24.453125" style="30" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="30"/>
-    <col min="8" max="8" width="23.81640625" style="30" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" style="30"/>
-    <col min="10" max="10" width="19.453125" style="30" customWidth="1"/>
-    <col min="11" max="11" width="9.1796875" style="30"/>
-    <col min="12" max="12" width="26.54296875" style="30" customWidth="1"/>
-    <col min="13" max="13" width="15.453125" style="30" customWidth="1"/>
-    <col min="14" max="14" width="19.7265625" style="30" customWidth="1"/>
-    <col min="15" max="17" width="9.1796875" style="30"/>
-    <col min="18" max="18" width="26.7265625" style="30" customWidth="1"/>
-    <col min="19" max="20" width="9.1796875" style="30"/>
-    <col min="21" max="21" width="14.54296875" style="30" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1796875" style="30"/>
+    <col min="1" max="1" width="9.140625" style="30"/>
+    <col min="2" max="2" width="55.5703125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="30" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" style="30" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="30"/>
+    <col min="8" max="8" width="23.85546875" style="30" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="30"/>
+    <col min="10" max="10" width="19.42578125" style="30" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="30"/>
+    <col min="12" max="12" width="26.5703125" style="30" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" style="30" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" style="30" customWidth="1"/>
+    <col min="15" max="17" width="9.140625" style="30"/>
+    <col min="18" max="18" width="26.7109375" style="30" customWidth="1"/>
+    <col min="19" max="20" width="9.140625" style="30"/>
+    <col min="21" max="21" width="14.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
@@ -18792,16 +18757,16 @@
     <cfRule type="duplicateValues" dxfId="165" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R8" xr:uid="{00000000-0002-0000-1900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R8">
       <formula1>"Eastern Cape,Free State,Gauteng,KwaZulu-Natal,Limpopo,Mpumalanga,Northern Cape,North-West,Western Cape"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7 G2:G7 I2:I7 K2:K7 M2:N7 U2:V7" xr:uid="{00000000-0002-0000-1900-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7 G2:G7 I2:I7 K2:K7 M2:N7 U2:V7">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-1900-000000000000}"/>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-1900-000001000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -18809,43 +18774,43 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC6"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="99"/>
-    <col min="2" max="2" width="54.1796875" style="99" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" style="99" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" style="99" customWidth="1"/>
-    <col min="5" max="5" width="23.81640625" style="99" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="99"/>
-    <col min="7" max="7" width="15.54296875" style="99" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.1796875" style="99"/>
-    <col min="11" max="11" width="12.1796875" style="99" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.26953125" style="99" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.1796875" style="99" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.453125" style="99" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.54296875" style="99" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.54296875" style="99" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.26953125" style="99" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="99"/>
+    <col min="2" max="2" width="54.140625" style="99" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="99" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="99" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="99" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="99"/>
+    <col min="7" max="7" width="15.5703125" style="99" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.140625" style="99"/>
+    <col min="11" max="11" width="12.140625" style="99" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="99" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" style="99" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" style="99" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" style="99" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.5703125" style="99" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.28515625" style="99" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="26" style="99" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.54296875" style="99" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.54296875" style="99" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.26953125" style="99" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.54296875" style="99" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.7265625" style="99" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.5703125" style="99" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.5703125" style="99" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.28515625" style="99" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="99" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.7109375" style="99" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="28" style="99" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="28.453125" style="99" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="28.1796875" style="99" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.7265625" style="99" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.453125" style="99" customWidth="1"/>
-    <col min="29" max="29" width="25.453125" style="99" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.1796875" style="99"/>
+    <col min="25" max="25" width="28.42578125" style="99" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.140625" style="99" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.7109375" style="99" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.42578125" style="99" customWidth="1"/>
+    <col min="29" max="29" width="25.42578125" style="99" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="99"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="109" customFormat="1">
@@ -19093,12 +19058,12 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6 F2:F6 H2:H6 J2:J6 L2:L6 N2:N6" xr:uid="{00000000-0002-0000-1A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6 F2:F6 H2:H6 J2:J6 L2:L6 N2:N6">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-1A00-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19106,23 +19071,23 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="99" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.453125" style="99" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" style="99" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="99" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" style="99" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.26953125" style="99" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" style="99" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" style="99" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="99"/>
+    <col min="4" max="4" width="13.7109375" style="99" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" style="99" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="99" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="99" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="99"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -19199,37 +19164,37 @@
     <cfRule type="duplicateValues" dxfId="164" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-1B00-000000000000}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-1B00-000001000000}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{00000000-0004-0000-1B00-000002000000}"/>
-    <hyperlink ref="E2" r:id="rId4" xr:uid="{00000000-0004-0000-1B00-000003000000}"/>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-1B00-000004000000}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId3"/>
+    <hyperlink ref="E2" r:id="rId4"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="99" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7265625" style="99" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="99" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="99" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="99" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.54296875" style="99" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" style="99" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="99" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.7265625" style="99" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.453125" style="99" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.26953125" style="99" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" style="99" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.42578125" style="99" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" style="99" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23" style="99" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="99"/>
+    <col min="11" max="16384" width="9.140625" style="99"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -19298,38 +19263,38 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-1C00-000000000000}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{00000000-0004-0000-1C00-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="99"/>
-    <col min="2" max="2" width="60.1796875" style="99" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" style="99" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" style="99" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" style="99" customWidth="1"/>
-    <col min="6" max="7" width="23.7265625" style="99" customWidth="1"/>
-    <col min="8" max="8" width="14.1796875" style="99" customWidth="1"/>
-    <col min="9" max="9" width="13.81640625" style="99" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1796875" style="99"/>
+    <col min="1" max="1" width="9.140625" style="99"/>
+    <col min="2" max="2" width="60.140625" style="99" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="99" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="99" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="99" customWidth="1"/>
+    <col min="6" max="7" width="23.7109375" style="99" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="99" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="99" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="99"/>
     <col min="11" max="11" width="14" style="99" customWidth="1"/>
     <col min="12" max="12" width="17" style="99" customWidth="1"/>
-    <col min="13" max="13" width="17.26953125" style="99" customWidth="1"/>
-    <col min="14" max="14" width="12.54296875" style="99" customWidth="1"/>
-    <col min="15" max="16384" width="9.1796875" style="99"/>
+    <col min="13" max="13" width="17.28515625" style="99" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="99" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="99"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="29">
+    <row r="1" spans="1:14" ht="30">
       <c r="A1" s="173" t="s">
         <v>34</v>
       </c>
@@ -19411,7 +19376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" ht="30">
       <c r="A3" s="21">
         <v>25</v>
       </c>
@@ -19489,20 +19454,20 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L4" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L4">
       <formula1>"Default(General),Retailer,Wholesale"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K4">
       <formula1>"Main Website,Everyshop"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H4">
       <formula1>"SAID,Passport"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="TestAutomation2@gmail.com" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="F3:F4" r:id="rId2" display="TestAutomation2@gmail.com" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="F2" r:id="rId1" display="TestAutomation2@gmail.com"/>
+    <hyperlink ref="F3:F4" r:id="rId2" display="TestAutomation2@gmail.com"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -19511,18 +19476,18 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="99" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.7265625" style="99" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.7109375" style="99" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="99" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7265625" style="99" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="99"/>
+    <col min="4" max="4" width="7.7109375" style="99" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="99"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -19613,31 +19578,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-1D00-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="99" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="99" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="99" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="99" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" style="99" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.26953125" style="99" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="99" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" style="99" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.54296875" style="99" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" style="99" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="99" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="99" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="99" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="99" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" style="99" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="99" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="99" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="99"/>
+    <col min="11" max="16384" width="9.140625" style="99"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="54" customFormat="1">
@@ -19807,25 +19772,25 @@
     <cfRule type="duplicateValues" dxfId="161" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-1E00-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="99" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="99" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="99" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="99" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" style="99" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="99"/>
+    <col min="4" max="4" width="15.42578125" style="99" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="99"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -19937,32 +19902,32 @@
     <cfRule type="duplicateValues" dxfId="158" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-1F00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"payUcreditcard"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-1F00-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="99" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="99" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="99" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="99" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" style="99" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="99" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="99" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7265625" style="99" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="99"/>
+    <col min="6" max="6" width="16.7109375" style="99" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7109375" style="99"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -20098,40 +20063,38 @@
     <cfRule type="duplicateValues" dxfId="157" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-2000-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="99"/>
+    <col min="1" max="1" width="9.140625" style="99"/>
     <col min="2" max="2" width="55" style="99" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" style="99" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="99"/>
-    <col min="5" max="5" width="14.1796875" style="99" customWidth="1"/>
-    <col min="6" max="6" width="22.81640625" style="99" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="99" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" style="99"/>
-    <col min="9" max="9" width="13.1796875" style="99" customWidth="1"/>
-    <col min="10" max="12" width="9.1796875" style="99"/>
-    <col min="13" max="14" width="12.1796875" style="99" customWidth="1"/>
-    <col min="15" max="15" width="26.453125" style="99" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.81640625" style="99" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7265625" style="99" customWidth="1"/>
-    <col min="18" max="16384" width="9.1796875" style="99"/>
+    <col min="3" max="3" width="10.85546875" style="99" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="99" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="99" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" style="99" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="99" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="99"/>
+    <col min="9" max="9" width="13.140625" style="99" customWidth="1"/>
+    <col min="10" max="12" width="9.140625" style="99"/>
+    <col min="13" max="14" width="12.140625" style="99" customWidth="1"/>
+    <col min="15" max="15" width="26.42578125" style="99" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" style="99" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" style="99" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="99"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1">
+    <row r="1" spans="1:17" s="4" customFormat="1" ht="30">
       <c r="A1" s="171" t="s">
         <v>34</v>
       </c>
@@ -20505,12 +20468,12 @@
     <cfRule type="duplicateValues" dxfId="154" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-2100-000000000000}"/>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-2100-000001000000}"/>
-    <hyperlink ref="O3" r:id="rId2" xr:uid="{00000000-0004-0000-2100-000002000000}"/>
-    <hyperlink ref="O4" r:id="rId3" xr:uid="{00000000-0004-0000-2100-000003000000}"/>
-    <hyperlink ref="O5" r:id="rId4" xr:uid="{00000000-0004-0000-2100-000004000000}"/>
-    <hyperlink ref="I7" r:id="rId5" display="tel:0845397015" xr:uid="{D403F522-3EDE-439D-915B-36C140D73CFC}"/>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
+    <hyperlink ref="O3" r:id="rId2"/>
+    <hyperlink ref="O4" r:id="rId3"/>
+    <hyperlink ref="O5" r:id="rId4"/>
+    <hyperlink ref="I7" r:id="rId5" display="tel:0845397015"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -20518,33 +20481,33 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="88.81640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="88.85546875" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.26953125" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.54296875" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="30" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11" style="30" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.81640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7265625" style="30" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.26953125" style="30" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.1796875" style="30" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.54296875" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.7265625" style="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.453125" style="30" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.453125" style="30" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.1796875" style="30" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.1796875" style="30"/>
+    <col min="12" max="12" width="20.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="109" customFormat="1">
@@ -21304,28 +21267,28 @@
     <cfRule type="duplicateValues" dxfId="153" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q21:R22 P7 P2:T3 P10:P1048576 T7:T10 Q11:R17 S11:S15" xr:uid="{00000000-0002-0000-2200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q21:R22 P7 P2:T3 P10:P1048576 T7:T10 Q11:R17 S11:S15">
       <formula1>"No,Yes"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3 N11:N1048576" xr:uid="{00000000-0002-0000-2200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3 N11:N1048576">
       <formula1>"ID,Passport"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3 I11:I1048576 M2:M1048576" xr:uid="{00000000-0002-0000-2200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I3 I11:I1048576 M2:M1048576">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4:N10" xr:uid="{00000000-0002-0000-2200-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4:N10">
       <formula1>"ID, Passport"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I10 P4:T6 P8:S9 Q7:S7 Q10:S10" xr:uid="{00000000-0002-0000-2200-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I10 P4:T6 P8:S9 Q7:S7 Q10:S10">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L6" xr:uid="{00000000-0002-0000-2200-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L6">
       <formula1>"Main Website,Incredible Connection,Hifi Corporation,Russells,Sleepmasters,Rochester"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-2200-000000000000}"/>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-2200-000001000000}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -21333,7 +21296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -21343,18 +21306,18 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.54296875" style="101" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.54296875" style="101" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="101" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.5703125" style="101" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="101" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.453125" style="101" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="109.453125" style="101" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" style="101" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" style="101" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.7265625" style="101" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="18.26953125" style="101" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="101"/>
+    <col min="4" max="4" width="23.42578125" style="101" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="109.42578125" style="101" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="101" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="101" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" style="101" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.28515625" style="101" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="101"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -22209,18 +22172,18 @@
     <cfRule type="duplicateValues" dxfId="139" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G23" xr:uid="{00000000-0002-0000-2300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G23">
       <formula1>"ProductListingPage,ProductDetailPage"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10:H15 H18:H23" xr:uid="{00000000-0002-0000-2300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10:H15 H18:H23">
       <formula1>"Add_To_Cart,Add_To_Wishlist"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K10:K15 K18:K23" xr:uid="{00000000-0002-0000-2300-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K10:K15 K18:K23">
       <formula1>"Yes_Wishlist,No_wishlist"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-2300-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -22228,21 +22191,21 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-2300-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'C:\Users\37601\Documents\JDGroupEVSBranchWorkSpaces\TA421\JD_IC_TestAutomation\src\test\resources\data\[jdgroupTA403.xlsx]Products_Category'!#REF!</xm:f>
+            <xm:f>[1]Products_Category!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>D24:D1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-2300-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'C:\Users\37605\Documents\main604\JD_IC_TestAutomation\src\test\resources\data\[jdgroupTA464.xlsx]Products_Category'!#REF!</xm:f>
+            <xm:f>[2]Products_Category!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>E10:E15</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-2300-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'C:\Users\37601\Documents\JDGroupEVSBranchWorkSpaces\TA599_TA600\JD_IC_TestAutomation\src\test\resources\data\[jdgroupTA464.xlsx]Products_Category'!#REF!</xm:f>
+            <xm:f>[3]Products_Category!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>E18:E23</xm:sqref>
         </x14:dataValidation>
@@ -22253,26 +22216,26 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="101" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="101" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="101" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="101" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.1796875" style="101" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.453125" style="101" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="102.54296875" style="101" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.54296875" style="101" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.81640625" style="101" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="101" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.7265625" style="101" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.26953125" style="101" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.26953125" style="101" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="101"/>
+    <col min="4" max="4" width="27.140625" style="101" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="101" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="102.5703125" style="101" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="101" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="101" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="101" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" style="101" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" style="101" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" style="101" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="101"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -22488,7 +22451,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="12.65" customHeight="1">
+    <row r="7" spans="1:12" ht="12.6" customHeight="1">
       <c r="A7" s="101">
         <v>31</v>
       </c>
@@ -23644,18 +23607,18 @@
     <cfRule type="duplicateValues" dxfId="128" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H16" xr:uid="{00000000-0002-0000-2400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H16">
       <formula1>"Add_To_Cart,Add_To_Wishlist"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G16" xr:uid="{00000000-0002-0000-2400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G16">
       <formula1>"ProductListingPage,ProductDetailPage"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K16" xr:uid="{00000000-0002-0000-2400-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K16">
       <formula1>"Yes_Wishlist,No_wishlist"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-2400-000000000000}"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -23663,21 +23626,21 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-2400-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Products_Category!$A$2:$A$18</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-2400-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Products_Category!$A$2:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>E39:E1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-2400-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'C:\Users\37601\Documents\JDGroupEVSBranchWorkSpaces\TA421\JD_IC_TestAutomation\src\test\resources\data\[jdgroupTA403.xlsx]Products_Category'!#REF!</xm:f>
+            <xm:f>[1]Products_Category!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>E37:E38</xm:sqref>
         </x14:dataValidation>
@@ -23688,7 +23651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -23698,29 +23661,29 @@
       <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="109" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="109" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="109" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="109" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="109" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" style="109" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="109" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.54296875" style="109" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" style="109" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.54296875" style="109" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7265625" style="109" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="109" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="109" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" style="109" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="109" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" style="109" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="109" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="11" style="109" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.81640625" style="109" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7265625" style="109" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.26953125" style="109" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.1796875" style="109" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.54296875" style="109" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.7265625" style="109" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.453125" style="109" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.453125" style="109" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.1796875" style="109" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1796875" style="109"/>
+    <col min="13" max="13" width="20.85546875" style="109" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="109" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" style="109" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.140625" style="109" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.5703125" style="109" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" style="109" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.42578125" style="109" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.42578125" style="109" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.140625" style="109" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="109"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -24243,7 +24206,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" ht="30">
       <c r="A9" s="103">
         <v>23</v>
       </c>
@@ -24308,7 +24271,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" ht="30">
       <c r="A10" s="103">
         <v>24</v>
       </c>
@@ -24945,21 +24908,21 @@
     <cfRule type="duplicateValues" dxfId="122" priority="66"/>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M11 M32" xr:uid="{00000000-0002-0000-2500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M11 M32">
       <formula1>"Main Website,Incredible Connection,Hifi Corporation,Russells,Sleepmasters,Rochester"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J11 Q2:U11 J32 Q32:U32" xr:uid="{00000000-0002-0000-2500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J11 Q2:U11 J32 Q32:U32">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O11 O31:O32" xr:uid="{00000000-0002-0000-2500-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O11 O31:O32">
       <formula1>"ID, Passport"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N11 N31:N32" xr:uid="{00000000-0002-0000-2500-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N11 N31:N32">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G7" r:id="rId1" xr:uid="{00000000-0004-0000-2500-000000000000}"/>
+    <hyperlink ref="G7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -24967,26 +24930,26 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="99" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="99" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="99" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" style="99" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.26953125" style="99" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="99" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" style="99" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="99" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.7265625" style="99" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" style="99" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28" style="99" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.26953125" style="99" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" style="99" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23" style="99" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="99"/>
+    <col min="11" max="16384" width="9.140625" style="99"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -25055,8 +25018,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-2600-000000000000}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{00000000-0004-0000-2600-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -25064,19 +25027,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.26953125" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.28515625" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.26953125" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="30"/>
+    <col min="4" max="4" width="37.28515625" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -25390,30 +25353,30 @@
     <cfRule type="duplicateValues" dxfId="282" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D18" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D18">
       <formula1>"Guest Customer Creation, Customer Creation, Customer Update,Customer Creation Magento Admin, Customer Update Magento Admin"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.26953125" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.28515625" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="30"/>
+    <col min="5" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="110" customFormat="1">
@@ -25779,26 +25742,26 @@
     <cfRule type="duplicateValues" dxfId="109" priority="149"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-2700-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="64.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.1796875" style="99" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.140625" style="99" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -26005,31 +25968,31 @@
     <cfRule type="duplicateValues" dxfId="107" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-2800-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -26227,17 +26190,17 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="39.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -26270,24 +26233,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-2A00-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="38.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -26326,26 +26289,26 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-2B00-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="79" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" style="79" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" style="79" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="79" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="79"/>
+    <col min="4" max="16384" width="9.140625" style="79"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -26438,20 +26401,20 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" style="75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" style="75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.26953125" style="75" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="75"/>
+    <col min="4" max="4" width="19.28515625" style="75" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="75"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -26594,7 +26557,7 @@
     <cfRule type="duplicateValues" dxfId="99" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{00000000-0002-0000-2D00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4">
       <formula1>"All,Specific"</formula1>
     </dataValidation>
   </dataValidations>
@@ -26603,23 +26566,23 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="72" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.81640625" style="72" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" style="72" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="72" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="72" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="72" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="72" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.54296875" style="72" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="72" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="72" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1796875" style="72"/>
+    <col min="8" max="16384" width="9.140625" style="72"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -26815,35 +26778,35 @@
     <cfRule type="duplicateValues" dxfId="97" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{00000000-0002-0000-2E00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
       <formula1>"ExistingUser,logedOn_user"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-2E00-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-2E00-000001000000}"/>
-    <hyperlink ref="E4:E7" r:id="rId3" display="watlevi41@gmail.com" xr:uid="{00000000-0004-0000-2E00-000002000000}"/>
-    <hyperlink ref="E8" r:id="rId4" xr:uid="{00000000-0004-0000-2E00-000003000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4:E7" r:id="rId3" display="watlevi41@gmail.com"/>
+    <hyperlink ref="E8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="49" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="49" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" style="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="49"/>
+    <col min="5" max="16384" width="9.140625" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -27222,7 +27185,7 @@
     <cfRule type="duplicateValues" dxfId="91" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-2F00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Update Account,Update Account Magento Admin,Create Account,Create Account Magento Admin,Guest Customer Creation,Registered customer from sales order"</formula1>
     </dataValidation>
   </dataValidations>
@@ -27231,19 +27194,19 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.453125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="35"/>
+    <col min="4" max="4" width="11.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -27323,21 +27286,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="99"/>
-    <col min="2" max="2" width="59.453125" style="99" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" style="99"/>
-    <col min="4" max="4" width="11.26953125" style="99" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="99"/>
+    <col min="1" max="1" width="9.140625" style="99"/>
+    <col min="2" max="2" width="59.42578125" style="99" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="99"/>
+    <col min="4" max="4" width="11.28515625" style="99" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="99"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29">
+    <row r="1" spans="1:4" ht="30">
       <c r="A1" s="175" t="s">
         <v>34</v>
       </c>
@@ -27437,28 +27400,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.453125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.42578125" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="35"/>
+    <col min="4" max="4" width="15.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -27507,29 +27470,29 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.1796875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="35" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7265625" style="35" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1796875" style="35"/>
+    <col min="13" max="13" width="17.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -27663,10 +27626,10 @@
     <cfRule type="duplicateValues" dxfId="86" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-3200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Ms,Mr,Dr,Miss,Mrs,Prof,Rev,Adv,Honorable"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{00000000-0002-0000-3200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576">
       <formula1>"Female,Male"</formula1>
     </dataValidation>
   </dataValidations>
@@ -27675,25 +27638,25 @@
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.26953125" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.1796875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="35"/>
+    <col min="4" max="4" width="22.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -27791,13 +27754,13 @@
     <cfRule type="duplicateValues" dxfId="84" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-3300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-3300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>"ABSA,AFRICAN BANK,BIDVEST.CAPITEC,FNB,INVESTEC,NEDBANK,STANDARD BANK SA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-3300-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
       <formula1>"English,Afrikaans,Sesotho,Xhosa,Zulu"</formula1>
     </dataValidation>
   </dataValidations>
@@ -27806,28 +27769,28 @@
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="35" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.26953125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" style="35" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7265625" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="35"/>
+    <col min="10" max="10" width="11.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -27943,7 +27906,7 @@
     <cfRule type="duplicateValues" dxfId="82" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{00000000-0002-0000-3400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"Eastern Cape,Free State,Gauteng,KwaZulu-Natal,Limpopo,Mpumalanga,Northern Cape,North-West,Western Cape"</formula1>
     </dataValidation>
   </dataValidations>
@@ -27951,7 +27914,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-3400-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Preferred Store'!$A$2:$A$71</xm:f>
           </x14:formula1>
@@ -27964,24 +27927,24 @@
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.453125" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.54296875" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="35" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="35"/>
+    <col min="8" max="8" width="18.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -28070,7 +28033,7 @@
     <cfRule type="duplicateValues" dxfId="80" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-3500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Domestic Worker,Company Employed,Government Employed,Full-time Housewife,Self Employed - Company Owner,Self Employed - Informal Trader,Student,Unemployed,Pensioner/Retired,Contract Worker,Other"</formula1>
     </dataValidation>
   </dataValidations>
@@ -28080,38 +28043,38 @@
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.1796875" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.453125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.42578125" style="35" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1796875" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" style="35" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7" style="35" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1796875" style="35"/>
-    <col min="15" max="15" width="23.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.7265625" style="35" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.1796875" style="35" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7265625" style="35" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.1796875" style="35"/>
+    <col min="14" max="14" width="9.140625" style="35"/>
+    <col min="15" max="15" width="23.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -28326,25 +28289,25 @@
     <cfRule type="duplicateValues" dxfId="78" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:I3 Q2:Q3" xr:uid="{00000000-0002-0000-3600-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:I3 Q2:Q3">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3" xr:uid="{00000000-0002-0000-3600-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3">
       <formula1>"Ms,Mr,Dr,Miss,Mrs,Prof,Rev,Adv,Honorable"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3" xr:uid="{00000000-0002-0000-3600-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3">
       <formula1>"African,Asian,Coloured,White,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3" xr:uid="{00000000-0002-0000-3600-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3">
       <formula1>"Single,Married / Civil Partnership,Widowed,Divorced,Separated,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3" xr:uid="{00000000-0002-0000-3600-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3">
       <formula1>"ANC with Accrual,ANC without Accrual,In Community,Customary Union,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U3" xr:uid="{00000000-0002-0000-3600-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U3">
       <formula1>"Female,Male"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576" xr:uid="{00000000-0002-0000-3600-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576">
       <formula1>"0,1,2,3,4,5,6,7,8,9"</formula1>
     </dataValidation>
   </dataValidations>
@@ -28354,22 +28317,22 @@
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.81640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.81640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.54296875" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="35"/>
+    <col min="4" max="4" width="20.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -28425,15 +28388,15 @@
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.81640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="34" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="34" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" style="34" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="34"/>
@@ -28480,25 +28443,25 @@
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.1796875" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.1796875" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" style="28" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="28" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="28"/>
+    <col min="10" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -28571,7 +28534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28582,42 +28545,42 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.81640625" style="10" customWidth="1"/>
-    <col min="14" max="14" width="20.26953125" style="10" customWidth="1"/>
-    <col min="15" max="15" width="31.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="10" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" style="10" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="30" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="30.26953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="20" style="10" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="27.1796875" style="10" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.1796875" style="10" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="11.54296875" style="10" customWidth="1"/>
-    <col min="31" max="16384" width="8.7265625" style="10"/>
+    <col min="27" max="27" width="23.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.140625" style="10" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="11.5703125" style="10" customWidth="1"/>
+    <col min="31" max="16384" width="8.7109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" ht="30">
       <c r="A1" s="14" t="s">
         <v>34</v>
       </c>
@@ -29221,39 +29184,37 @@
     <cfRule type="duplicateValues" dxfId="68" priority="47"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y10 Q2:Q10" xr:uid="{00000000-0002-0000-3A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y10 Q2:Q10">
       <formula1>"Eastern Cape,Free State,Gauteng,KwaZulu-Natal,Limpopo,Mpumalanga,Northern Cape,North-West,Western Cape"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:W10 I2:I10 K2:K10 M2:O10 G2:G10 E2:E10 F5:F7" xr:uid="{00000000-0002-0000-3A00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:W10 I2:I10 K2:K10 M2:O10 G2:G10 E2:E10 F5:F7">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D6:D7" r:id="rId1" display="original2Ic@automationjdg.co.za" xr:uid="{00000000-0004-0000-3A00-000000000000}"/>
-    <hyperlink ref="D7" r:id="rId2" xr:uid="{00000000-0004-0000-3A00-000001000000}"/>
-    <hyperlink ref="D2:D4" r:id="rId3" display="original2Ic@automationjdg.co.za" xr:uid="{00000000-0004-0000-3A00-000002000000}"/>
-    <hyperlink ref="D5:D6" r:id="rId4" display="original2Ic@automationjdg.co.za" xr:uid="{00000000-0004-0000-3A00-000003000000}"/>
+    <hyperlink ref="D6:D7" r:id="rId1" display="original2Ic@automationjdg.co.za"/>
+    <hyperlink ref="D7" r:id="rId2"/>
+    <hyperlink ref="D2:D4" r:id="rId3" display="original2Ic@automationjdg.co.za"/>
+    <hyperlink ref="D5:D6" r:id="rId4" display="original2Ic@automationjdg.co.za"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.453125" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.42578125" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7265625" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.54296875" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="30"/>
+    <col min="4" max="4" width="7.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -29363,50 +29324,50 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.54296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.26953125" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.54296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.54296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18" style="11" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="21" style="11" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="25" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="30" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="30.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="30.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="30.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="20" style="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="27.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.7265625" style="11"/>
+    <col min="28" max="28" width="23.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="27.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.7109375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -30028,7 +29989,7 @@
     <cfRule type="duplicateValues" dxfId="62" priority="29"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576 F2:F1048576 H2:H1048576 J2:J1048576 L2:L1048576 N2:O1048576" xr:uid="{00000000-0002-0000-3B00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576 F2:F1048576 H2:H1048576 J2:J1048576 L2:L1048576 N2:O1048576">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -30037,7 +29998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -30048,14 +30009,14 @@
       <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="43.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -30491,7 +30452,7 @@
     <cfRule type="duplicateValues" dxfId="60" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-3C00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Guest Customer Creation, Customer Creation, Customer Update,Customer Creation Magento Admin, Customer Update Magento Admin"</formula1>
     </dataValidation>
   </dataValidations>
@@ -30500,24 +30461,24 @@
 </file>
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="37" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.26953125" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="37" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.54296875" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="37" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" style="37" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" style="37" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="37" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="37" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="37"/>
+    <col min="11" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="54" customFormat="1">
@@ -31067,7 +31028,7 @@
     <cfRule type="duplicateValues" dxfId="56" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-3D00-000000000000}"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -31075,17 +31036,17 @@
 </file>
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -31371,43 +31332,43 @@
     <cfRule type="duplicateValues" dxfId="51" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00000000-0002-0000-3E00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"payUcreditcard,Cash_Deposits"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-3E00-000000000000}"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="29">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="30">
       <c r="A1" s="171" t="s">
         <v>34</v>
       </c>
@@ -31657,7 +31618,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="4" customFormat="1">
+    <row r="6" spans="1:16" s="4" customFormat="1" ht="30">
       <c r="A6" s="15">
         <v>30</v>
       </c>
@@ -31707,7 +31668,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="4" customFormat="1" ht="29">
+    <row r="7" spans="1:16" s="4" customFormat="1" ht="30">
       <c r="A7" s="15">
         <v>31</v>
       </c>
@@ -32398,18 +32359,18 @@
     <cfRule type="duplicateValues" dxfId="47" priority="6"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-3F00-000000000000}"/>
-    <hyperlink ref="O3" r:id="rId2" xr:uid="{00000000-0004-0000-3F00-000001000000}"/>
-    <hyperlink ref="O4" r:id="rId3" xr:uid="{00000000-0004-0000-3F00-000002000000}"/>
-    <hyperlink ref="O5" r:id="rId4" xr:uid="{00000000-0004-0000-3F00-000003000000}"/>
-    <hyperlink ref="O8" r:id="rId5" xr:uid="{00000000-0004-0000-3F00-000004000000}"/>
-    <hyperlink ref="O6" r:id="rId6" xr:uid="{00000000-0004-0000-3F00-000005000000}"/>
-    <hyperlink ref="O7" r:id="rId7" xr:uid="{00000000-0004-0000-3F00-000006000000}"/>
-    <hyperlink ref="O9" r:id="rId8" xr:uid="{00000000-0004-0000-3F00-000007000000}"/>
-    <hyperlink ref="O34" r:id="rId9" xr:uid="{00000000-0004-0000-3F00-000008000000}"/>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-3F00-000009000000}"/>
-    <hyperlink ref="O35" r:id="rId10" xr:uid="{00000000-0004-0000-3F00-00000A000000}"/>
-    <hyperlink ref="O36" r:id="rId11" xr:uid="{00000000-0004-0000-3F00-00000B000000}"/>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="O3" r:id="rId2"/>
+    <hyperlink ref="O4" r:id="rId3"/>
+    <hyperlink ref="O5" r:id="rId4"/>
+    <hyperlink ref="O8" r:id="rId5"/>
+    <hyperlink ref="O6" r:id="rId6"/>
+    <hyperlink ref="O7" r:id="rId7"/>
+    <hyperlink ref="O9" r:id="rId8"/>
+    <hyperlink ref="O34" r:id="rId9"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
+    <hyperlink ref="O35" r:id="rId10"/>
+    <hyperlink ref="O36" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
@@ -32417,18 +32378,18 @@
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="21.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.1796875" style="28"/>
+    <col min="1" max="1" width="21.140625" style="28"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" style="28"/>
+    <col min="3" max="3" width="21.140625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -32448,7 +32409,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29">
+    <row r="2" spans="1:5" ht="30">
       <c r="A2" s="44">
         <v>1</v>
       </c>
@@ -32459,7 +32420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29">
+    <row r="3" spans="1:5" ht="30">
       <c r="A3" s="44">
         <v>2</v>
       </c>
@@ -32470,7 +32431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="30">
       <c r="A4" s="44">
         <v>3</v>
       </c>
@@ -32481,7 +32442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29">
+    <row r="5" spans="1:5" ht="30">
       <c r="A5" s="44">
         <v>4</v>
       </c>
@@ -32492,7 +32453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29">
+    <row r="6" spans="1:5" ht="30">
       <c r="A6" s="44">
         <v>5</v>
       </c>
@@ -32547,7 +32508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="30">
       <c r="A11" s="44">
         <v>19</v>
       </c>
@@ -32587,27 +32548,27 @@
 </file>
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.54296875" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="6"/>
+    <col min="4" max="4" width="17.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -32752,32 +32713,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-4100-000000000000}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{00000000-0004-0000-4100-000001000000}"/>
-    <hyperlink ref="J3" r:id="rId3" xr:uid="{00000000-0004-0000-4100-000002000000}"/>
-    <hyperlink ref="H3" r:id="rId4" xr:uid="{00000000-0004-0000-4100-000003000000}"/>
-    <hyperlink ref="J4" r:id="rId5" xr:uid="{00000000-0004-0000-4100-000004000000}"/>
-    <hyperlink ref="H4" r:id="rId6" xr:uid="{00000000-0004-0000-4100-000005000000}"/>
+    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId2"/>
+    <hyperlink ref="J3" r:id="rId3"/>
+    <hyperlink ref="H3" r:id="rId4"/>
+    <hyperlink ref="J4" r:id="rId5"/>
+    <hyperlink ref="H4" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFFD50A6-25F5-430D-BC40-ADFEF0BDB0A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="54.81640625" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="20.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="30" customFormat="1">
@@ -32884,10 +32845,10 @@
     <cfRule type="duplicateValues" dxfId="41" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{6AB6920D-87F1-426B-8FD5-DDE04473CDF3}"/>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{87EF50F2-2C65-4487-9587-335316A60C00}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{DCFA7BC4-4DB2-4A88-9F1B-F38FE2423984}"/>
-    <hyperlink ref="H3" r:id="rId3" xr:uid="{D2BF2D75-3599-425C-8352-61810C6C3DB8}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId2"/>
+    <hyperlink ref="H3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -32895,17 +32856,17 @@
 </file>
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -32922,7 +32883,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29">
+    <row r="2" spans="1:4" ht="30">
       <c r="A2" s="15">
         <v>26</v>
       </c>
@@ -32936,7 +32897,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="29">
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="30">
       <c r="A3" s="15">
         <v>27</v>
       </c>
@@ -32950,7 +32911,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="29">
+    <row r="4" spans="1:4" ht="30">
       <c r="A4" s="15">
         <v>28</v>
       </c>
@@ -32964,7 +32925,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29">
+    <row r="5" spans="1:4" ht="30">
       <c r="A5" s="15">
         <v>29</v>
       </c>
@@ -32978,7 +32939,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="29">
+    <row r="6" spans="1:4" ht="30">
       <c r="A6" s="15">
         <v>30</v>
       </c>
@@ -32992,7 +32953,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="30">
       <c r="A7" s="15">
         <v>31</v>
       </c>
@@ -33048,7 +33009,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="29">
+    <row r="11" spans="1:4" ht="30">
       <c r="A11" s="130">
         <v>40</v>
       </c>
@@ -33062,7 +33023,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="29">
+    <row r="12" spans="1:4" ht="30">
       <c r="A12" s="60">
         <v>41</v>
       </c>
@@ -33152,26 +33113,26 @@
     <cfRule type="duplicateValues" dxfId="39" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-4200-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -33496,27 +33457,27 @@
     <cfRule type="duplicateValues" dxfId="35" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-4300-000000000000}"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.81640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.453125" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="166" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="30"/>
+    <col min="5" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -33619,17 +33580,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="D6" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="D7" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-    <hyperlink ref="C2" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
-    <hyperlink ref="D3" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
-    <hyperlink ref="C3" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
-    <hyperlink ref="D4" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
-    <hyperlink ref="C4" r:id="rId10" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
-    <hyperlink ref="B6" r:id="rId11" xr:uid="{0F52A5C0-8164-4BFF-901B-35EE2209FCDA}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D6" r:id="rId2"/>
+    <hyperlink ref="D7" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId5"/>
+    <hyperlink ref="C6" r:id="rId6"/>
+    <hyperlink ref="D3" r:id="rId7"/>
+    <hyperlink ref="C3" r:id="rId8"/>
+    <hyperlink ref="D4" r:id="rId9"/>
+    <hyperlink ref="C4" r:id="rId10"/>
+    <hyperlink ref="B6" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
@@ -33637,19 +33598,19 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="37" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="37" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="37"/>
+    <col min="5" max="5" width="13.5703125" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -33729,7 +33690,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29">
+    <row r="6" spans="1:5" ht="30">
       <c r="A6" s="15">
         <v>30</v>
       </c>
@@ -33950,14 +33911,14 @@
     <cfRule type="duplicateValues" dxfId="31" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-4400-000000000000}"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -33967,13 +33928,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="10"/>
+    <col min="4" max="4" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -34002,7 +33963,7 @@
       </c>
       <c r="D2" s="15"/>
     </row>
-    <row r="3" spans="1:4" ht="29">
+    <row r="3" spans="1:4" ht="30">
       <c r="A3" s="15">
         <v>27</v>
       </c>
@@ -34014,7 +33975,7 @@
       </c>
       <c r="D3" s="15"/>
     </row>
-    <row r="4" spans="1:4" ht="29">
+    <row r="4" spans="1:4" ht="30">
       <c r="A4" s="15">
         <v>28</v>
       </c>
@@ -34134,7 +34095,7 @@
       </c>
       <c r="D13" s="15"/>
     </row>
-    <row r="14" spans="1:4" ht="29">
+    <row r="14" spans="1:4" ht="30">
       <c r="A14" s="15">
         <v>41</v>
       </c>
@@ -34226,27 +34187,27 @@
     <cfRule type="duplicateValues" dxfId="23" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-4500-000000000000}"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -34296,16 +34257,16 @@
 </file>
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.26953125" style="37" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" style="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -34404,21 +34365,21 @@
 </file>
 
 <file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="30" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="30"/>
+    <col min="4" max="4" width="18.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -34504,7 +34465,7 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{00000000-0002-0000-4800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"Reuse,Redeem"</formula1>
     </dataValidation>
   </dataValidations>
@@ -34514,21 +34475,21 @@
 </file>
 
 <file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -34598,7 +34559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -34608,15 +34569,15 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="110" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="110" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="110" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="110" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="110" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" style="110" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="23.1796875" style="110" hidden="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="110"/>
+    <col min="6" max="6" width="23.140625" style="110" hidden="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="110"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -35039,7 +35000,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.15" customHeight="1">
+    <row r="22" spans="1:6" ht="14.1" customHeight="1">
       <c r="A22" s="56">
         <v>64</v>
       </c>
@@ -35236,44 +35197,44 @@
     <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-4A00-000000000000}"/>
-    <hyperlink ref="F8" r:id="rId2" xr:uid="{00000000-0004-0000-4A00-000001000000}"/>
-    <hyperlink ref="F13" r:id="rId3" display="Password@123" xr:uid="{00000000-0004-0000-4A00-000002000000}"/>
-    <hyperlink ref="F22" r:id="rId4" xr:uid="{00000000-0004-0000-4A00-000003000000}"/>
-    <hyperlink ref="F23" r:id="rId5" xr:uid="{00000000-0004-0000-4A00-000004000000}"/>
-    <hyperlink ref="E13" r:id="rId6" xr:uid="{00000000-0004-0000-4A00-000005000000}"/>
-    <hyperlink ref="F14" r:id="rId7" display="Password@123" xr:uid="{00000000-0004-0000-4A00-000006000000}"/>
-    <hyperlink ref="F12" r:id="rId8" display="Password@123" xr:uid="{00000000-0004-0000-4A00-000007000000}"/>
-    <hyperlink ref="E14" r:id="rId9" xr:uid="{00000000-0004-0000-4A00-000008000000}"/>
-    <hyperlink ref="E17" r:id="rId10" xr:uid="{00000000-0004-0000-4A00-000009000000}"/>
-    <hyperlink ref="F17" r:id="rId11" display="Password@123" xr:uid="{00000000-0004-0000-4A00-00000A000000}"/>
-    <hyperlink ref="E18" r:id="rId12" xr:uid="{00000000-0004-0000-4A00-00000B000000}"/>
-    <hyperlink ref="F18" r:id="rId13" display="Password@123" xr:uid="{00000000-0004-0000-4A00-00000C000000}"/>
-    <hyperlink ref="E20" r:id="rId14" xr:uid="{00000000-0004-0000-4A00-00000D000000}"/>
-    <hyperlink ref="E21" r:id="rId15" xr:uid="{00000000-0004-0000-4A00-00000E000000}"/>
-    <hyperlink ref="E24" r:id="rId16" xr:uid="{00000000-0004-0000-4A00-00000F000000}"/>
-    <hyperlink ref="E25" r:id="rId17" xr:uid="{00000000-0004-0000-4A00-000010000000}"/>
-    <hyperlink ref="E16" r:id="rId18" xr:uid="{00000000-0004-0000-4A00-000011000000}"/>
-    <hyperlink ref="F19" r:id="rId19" display="Password@123" xr:uid="{00000000-0004-0000-4A00-000012000000}"/>
-    <hyperlink ref="E19" r:id="rId20" xr:uid="{00000000-0004-0000-4A00-000013000000}"/>
-    <hyperlink ref="E11" r:id="rId21" xr:uid="{00000000-0004-0000-4A00-000014000000}"/>
-    <hyperlink ref="F11" r:id="rId22" display="Password@123" xr:uid="{00000000-0004-0000-4A00-000015000000}"/>
-    <hyperlink ref="E15" r:id="rId23" xr:uid="{00000000-0004-0000-4A00-000016000000}"/>
-    <hyperlink ref="F15" r:id="rId24" display="Password@123" xr:uid="{00000000-0004-0000-4A00-000017000000}"/>
-    <hyperlink ref="E8" r:id="rId25" xr:uid="{00000000-0004-0000-4A00-000018000000}"/>
-    <hyperlink ref="E10" r:id="rId26" xr:uid="{00000000-0004-0000-4A00-000019000000}"/>
-    <hyperlink ref="F10" r:id="rId27" xr:uid="{00000000-0004-0000-4A00-00001A000000}"/>
-    <hyperlink ref="E9" r:id="rId28" xr:uid="{00000000-0004-0000-4A00-00001B000000}"/>
-    <hyperlink ref="F9" r:id="rId29" xr:uid="{00000000-0004-0000-4A00-00001C000000}"/>
-    <hyperlink ref="F3:F7" r:id="rId30" display="Password@123" xr:uid="{00000000-0004-0000-4A00-00001D000000}"/>
-    <hyperlink ref="F3" r:id="rId31" xr:uid="{00000000-0004-0000-4A00-00001E000000}"/>
-    <hyperlink ref="F4" r:id="rId32" xr:uid="{00000000-0004-0000-4A00-00001F000000}"/>
-    <hyperlink ref="F5" r:id="rId33" xr:uid="{00000000-0004-0000-4A00-000020000000}"/>
-    <hyperlink ref="F6" r:id="rId34" xr:uid="{00000000-0004-0000-4A00-000021000000}"/>
-    <hyperlink ref="F7" r:id="rId35" xr:uid="{00000000-0004-0000-4A00-000022000000}"/>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-4A00-000023000000}"/>
-    <hyperlink ref="F29" r:id="rId36" display="Password@123" xr:uid="{00000000-0004-0000-4A00-000024000000}"/>
-    <hyperlink ref="E29" r:id="rId37" xr:uid="{00000000-0004-0000-4A00-000025000000}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F8" r:id="rId2"/>
+    <hyperlink ref="F13" r:id="rId3" display="Password@123"/>
+    <hyperlink ref="F22" r:id="rId4"/>
+    <hyperlink ref="F23" r:id="rId5"/>
+    <hyperlink ref="E13" r:id="rId6"/>
+    <hyperlink ref="F14" r:id="rId7" display="Password@123"/>
+    <hyperlink ref="F12" r:id="rId8" display="Password@123"/>
+    <hyperlink ref="E14" r:id="rId9"/>
+    <hyperlink ref="E17" r:id="rId10"/>
+    <hyperlink ref="F17" r:id="rId11" display="Password@123"/>
+    <hyperlink ref="E18" r:id="rId12"/>
+    <hyperlink ref="F18" r:id="rId13" display="Password@123"/>
+    <hyperlink ref="E20" r:id="rId14"/>
+    <hyperlink ref="E21" r:id="rId15"/>
+    <hyperlink ref="E24" r:id="rId16"/>
+    <hyperlink ref="E25" r:id="rId17"/>
+    <hyperlink ref="E16" r:id="rId18"/>
+    <hyperlink ref="F19" r:id="rId19" display="Password@123"/>
+    <hyperlink ref="E19" r:id="rId20"/>
+    <hyperlink ref="E11" r:id="rId21"/>
+    <hyperlink ref="F11" r:id="rId22" display="Password@123"/>
+    <hyperlink ref="E15" r:id="rId23"/>
+    <hyperlink ref="F15" r:id="rId24" display="Password@123"/>
+    <hyperlink ref="E8" r:id="rId25"/>
+    <hyperlink ref="E10" r:id="rId26"/>
+    <hyperlink ref="F10" r:id="rId27"/>
+    <hyperlink ref="E9" r:id="rId28"/>
+    <hyperlink ref="F9" r:id="rId29"/>
+    <hyperlink ref="F3:F7" r:id="rId30" display="Password@123"/>
+    <hyperlink ref="F3" r:id="rId31"/>
+    <hyperlink ref="F4" r:id="rId32"/>
+    <hyperlink ref="F5" r:id="rId33"/>
+    <hyperlink ref="F6" r:id="rId34"/>
+    <hyperlink ref="F7" r:id="rId35"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
+    <hyperlink ref="F29" r:id="rId36" display="Password@123"/>
+    <hyperlink ref="E29" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId38"/>
@@ -35281,15 +35242,15 @@
 </file>
 
 <file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -35523,27 +35484,27 @@
     <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-4B00-000000000000}"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -35617,28 +35578,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-4C00-000000000000}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-4C00-000001000000}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -35681,20 +35642,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.26953125" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.28515625" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" style="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.453125" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="30"/>
+    <col min="5" max="5" width="10.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -36143,34 +36104,34 @@
     <cfRule type="duplicateValues" dxfId="280" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A1" location="EVS!A1" display="TCID" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="A1" location="EVS!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -36251,28 +36212,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-4E00-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -36382,8 +36343,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="Welc0me@2021" xr:uid="{00000000-0004-0000-4F00-000000000000}"/>
-    <hyperlink ref="F6" r:id="rId2" xr:uid="{00000000-0004-0000-4F00-000001000000}"/>
+    <hyperlink ref="F2" r:id="rId1" display="Welc0me@2021"/>
+    <hyperlink ref="F6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -36391,26 +36352,26 @@
 </file>
 
 <file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -36518,9 +36479,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-5000-000000000000}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-5000-000001000000}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{00000000-0004-0000-5000-000002000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -36528,19 +36489,19 @@
 </file>
 
 <file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1">
@@ -36557,7 +36518,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="24.65" customHeight="1">
+    <row r="2" spans="1:4" ht="24.6" customHeight="1">
       <c r="A2" s="3">
         <v>9</v>
       </c>
@@ -36568,7 +36529,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="99" customFormat="1" ht="24.65" customHeight="1">
+    <row r="3" spans="1:4" s="99" customFormat="1" ht="24.6" customHeight="1">
       <c r="A3" s="3">
         <v>20</v>
       </c>
@@ -36585,31 +36546,31 @@
 </file>
 
 <file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="1"/>
+    <col min="12" max="12" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="29">
+    <row r="1" spans="1:12" ht="30">
       <c r="A1" s="14" t="s">
         <v>34</v>
       </c>
@@ -36715,7 +36676,7 @@
       </c>
       <c r="L3" s="15"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" ht="30">
       <c r="A4" s="15">
         <v>8</v>
       </c>
@@ -37054,17 +37015,17 @@
     <cfRule type="duplicateValues" dxfId="0" priority="56"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4" xr:uid="{00000000-0002-0000-5200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
       <formula1>"Main Website,Incredible Connection"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G4 F5:F1048576" xr:uid="{00000000-0002-0000-5200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G4 F5:F1048576">
       <formula1>"SAID,Passport"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="TestAutomation2@gmail.com" xr:uid="{00000000-0004-0000-5200-000000000000}"/>
-    <hyperlink ref="F3" r:id="rId2" display="TestAutomation2@gmail.com" xr:uid="{00000000-0004-0000-5200-000001000000}"/>
-    <hyperlink ref="F4" r:id="rId3" display="TestAutomation2@gmail.com" xr:uid="{00000000-0004-0000-5200-000002000000}"/>
+    <hyperlink ref="F2" r:id="rId1" display="TestAutomation2@gmail.com"/>
+    <hyperlink ref="F3" r:id="rId2" display="TestAutomation2@gmail.com"/>
+    <hyperlink ref="F4" r:id="rId3" display="TestAutomation2@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -37073,16 +37034,16 @@
 </file>
 
 <file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -37114,21 +37075,21 @@
 </file>
 
 <file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1">
@@ -37218,19 +37179,19 @@
 </file>
 
 <file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
@@ -37422,21 +37383,21 @@
 </file>
 
 <file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -37526,21 +37487,21 @@
 </file>
 
 <file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -37630,7 +37591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -37641,13 +37602,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.140625" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="30"/>
+    <col min="5" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -38271,7 +38232,7 @@
     <cfRule type="duplicateValues" dxfId="270" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A1" location="IC!A1" display="TCID" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="A1" location="IC!A1" display="TCID"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -38279,16 +38240,16 @@
 </file>
 
 <file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -38652,21 +38613,21 @@
 </file>
 
 <file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -38756,21 +38717,21 @@
 </file>
 
 <file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView topLeftCell="L14" workbookViewId="0">
       <selection activeCell="Y27" sqref="Y27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1">
@@ -38860,6 +38821,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009E4315169E4449459811E1A2A421A5D2" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="484de8a0a7035cbf3240ac5ef037eda8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="38ec8e4d-8506-4d8b-b040-96d37469ddf9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="40b4f8b6fbe630a6badbf346a8d0e64c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -39008,15 +38978,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -39027,6 +38988,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EED871C4-2A4D-4B74-98A2-587321F60978}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -39041,14 +39010,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C0858-3CD6-4044-8BEB-39A1DA4B5834}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
